--- a/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>FULO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,86 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
         <v>600</v>
@@ -746,10 +753,10 @@
         <v>600</v>
       </c>
       <c r="G8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I8" s="3">
         <v>500</v>
@@ -758,25 +765,31 @@
         <v>500</v>
       </c>
       <c r="K8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L8" s="3">
         <v>500</v>
       </c>
       <c r="M8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N8" s="3">
         <v>500</v>
       </c>
       <c r="O8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P8" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>300</v>
+      </c>
+      <c r="R8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -799,33 +812,39 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>-100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>-100</v>
       </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E10" s="3">
         <v>500</v>
@@ -834,19 +853,19 @@
         <v>500</v>
       </c>
       <c r="G10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I10" s="3">
         <v>400</v>
       </c>
       <c r="J10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L10" s="3">
         <v>500</v>
@@ -858,13 +877,19 @@
         <v>500</v>
       </c>
       <c r="O10" s="3">
+        <v>500</v>
+      </c>
+      <c r="P10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1039,15 +1084,15 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,16 +1123,18 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>600</v>
@@ -1090,34 +1143,40 @@
         <v>500</v>
       </c>
       <c r="H17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
       </c>
       <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1140,28 +1199,34 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,22 +1254,22 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1304,49 @@
         <v>100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
         <v>100</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1292,15 +1371,15 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1310,8 +1389,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,7 +1404,7 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
         <v>100</v>
@@ -1334,33 +1419,39 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1380,26 +1471,32 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,48 +1554,54 @@
         <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
         <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1501,7 +1610,7 @@
         <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>100</v>
@@ -1510,28 +1619,34 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,13 +1689,19 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1598,28 +1719,34 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,22 +1854,22 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1750,13 +1889,19 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1765,7 +1910,7 @@
         <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>100</v>
@@ -1780,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -1794,8 +1939,14 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,13 +1989,19 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1853,7 +2010,7 @@
         <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>100</v>
@@ -1868,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -1882,57 +2039,69 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,37 +2138,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>600</v>
+      </c>
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2011,8 +2184,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2161,13 +2358,13 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2187,37 +2384,43 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>600</v>
+      </c>
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2229,10 +2432,16 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,28 +2484,34 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>700</v>
+      </c>
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3">
-        <v>100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2305,22 +2520,28 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2490,13 +2729,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2784,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,43 +2799,49 @@
         <v>1600</v>
       </c>
       <c r="E54" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="F54" s="3">
         <v>1600</v>
       </c>
       <c r="G54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I54" s="3">
         <v>300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,13 +2878,15 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2649,10 +2910,10 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -2661,15 +2922,21 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2693,86 +2960,98 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E59" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F59" s="3">
         <v>1200</v>
       </c>
       <c r="G59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I59" s="3">
         <v>1000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1100</v>
       </c>
       <c r="J59" s="3">
         <v>1100</v>
       </c>
       <c r="K59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M59" s="3">
         <v>1200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1000</v>
       </c>
       <c r="N59" s="3">
         <v>1000</v>
       </c>
       <c r="O59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="P59" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>900</v>
+      </c>
+      <c r="R59" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E60" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F60" s="3">
         <v>1200</v>
       </c>
       <c r="G60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I60" s="3">
         <v>1000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1200</v>
       </c>
       <c r="J60" s="3">
         <v>1100</v>
@@ -2781,22 +3060,28 @@
         <v>1200</v>
       </c>
       <c r="L60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1000</v>
       </c>
       <c r="P60" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R60" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2831,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -2839,52 +3124,64 @@
       <c r="P61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
-        <v>100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
+        <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>200</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>200</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,37 +3324,43 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1300</v>
       </c>
       <c r="M66" s="3">
         <v>1300</v>
@@ -3059,8 +3374,14 @@
       <c r="P66" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R66" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>600</v>
+      </c>
+      <c r="R70" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,37 +3594,43 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-10000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-10300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-10400</v>
       </c>
       <c r="M72" s="3">
         <v>-10400</v>
@@ -3297,8 +3644,14 @@
       <c r="P72" s="3">
         <v>-10400</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-10400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1700</v>
       </c>
       <c r="O76" s="3">
         <v>-1700</v>
       </c>
       <c r="P76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,62 +3894,74 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3581,7 +3970,7 @@
         <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>100</v>
@@ -3596,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
@@ -3610,8 +3999,14 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,31 +4319,37 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4393,15 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
@@ -3968,11 +4409,11 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4110,14 +4569,14 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4348,14 +4839,14 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,28 +4909,34 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>100</v>
@@ -4442,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>FULO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
-      </c>
-      <c r="E8" s="3">
-        <v>600</v>
       </c>
       <c r="F8" s="3">
         <v>600</v>
@@ -759,7 +763,7 @@
         <v>600</v>
       </c>
       <c r="I8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J8" s="3">
         <v>500</v>
@@ -771,10 +775,10 @@
         <v>500</v>
       </c>
       <c r="M8" s="3">
+        <v>500</v>
+      </c>
+      <c r="N8" s="3">
         <v>400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>500</v>
       </c>
       <c r="O8" s="3">
         <v>500</v>
@@ -783,13 +787,16 @@
         <v>500</v>
       </c>
       <c r="Q8" s="3">
+        <v>500</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -818,14 +825,14 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>-100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
@@ -833,21 +840,24 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>-100</v>
       </c>
-      <c r="R9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
-      </c>
-      <c r="E10" s="3">
-        <v>500</v>
       </c>
       <c r="F10" s="3">
         <v>500</v>
@@ -859,7 +869,7 @@
         <v>500</v>
       </c>
       <c r="I10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J10" s="3">
         <v>400</v>
@@ -868,7 +878,7 @@
         <v>400</v>
       </c>
       <c r="L10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M10" s="3">
         <v>500</v>
@@ -883,13 +893,16 @@
         <v>500</v>
       </c>
       <c r="Q10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1090,12 +1113,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,19 +1161,19 @@
         <v>700</v>
       </c>
       <c r="E17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>600</v>
       </c>
       <c r="G17" s="3">
+        <v>600</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
@@ -1155,33 +1182,36 @@
         <v>500</v>
       </c>
       <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
       </c>
       <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1190,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -1205,16 +1235,16 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>100</v>
@@ -1223,10 +1253,13 @@
         <v>100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1272,7 +1306,7 @@
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1310,10 +1347,10 @@
         <v>100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>100</v>
@@ -1322,16 +1359,16 @@
         <v>100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
@@ -1340,13 +1377,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1377,12 +1417,12 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1410,28 +1453,28 @@
         <v>100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -1440,21 +1483,24 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1477,26 +1523,29 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1560,10 +1612,10 @@
         <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
@@ -1572,16 +1624,16 @@
         <v>100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -1590,48 +1642,51 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -1640,13 +1695,16 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,16 +1753,19 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1725,14 +1786,14 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -1740,13 +1801,16 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,16 +1924,16 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -1872,7 +1942,7 @@
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1895,40 +1965,43 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,40 +2071,43 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,31 +2236,31 @@
         <v>800</v>
       </c>
       <c r="E41" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F41" s="3">
         <v>600</v>
       </c>
       <c r="G41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2364,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2390,31 +2489,34 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
-      </c>
-      <c r="E46" s="3">
-        <v>600</v>
       </c>
       <c r="F46" s="3">
         <v>600</v>
       </c>
       <c r="G46" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H46" s="3">
         <v>500</v>
       </c>
       <c r="I46" s="3">
+        <v>500</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
@@ -2423,25 +2525,28 @@
         <v>200</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,31 +2595,34 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
       </c>
       <c r="F48" s="3">
+        <v>700</v>
+      </c>
+      <c r="G48" s="3">
         <v>1000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1100</v>
       </c>
       <c r="H48" s="3">
         <v>1100</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2526,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2535,13 +2643,16 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2735,13 +2855,16 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,19 +2913,22 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1600</v>
       </c>
       <c r="G54" s="3">
         <v>1600</v>
@@ -2811,20 +2937,20 @@
         <v>1600</v>
       </c>
       <c r="I54" s="3">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
       </c>
       <c r="K54" s="3">
+        <v>300</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
@@ -2832,16 +2958,19 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,10 +3020,10 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2916,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -2928,18 +3059,21 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2966,13 +3100,13 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -2980,19 +3114,22 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1200</v>
       </c>
       <c r="G59" s="3">
         <v>1200</v>
@@ -3001,10 +3138,10 @@
         <v>1200</v>
       </c>
       <c r="I59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J59" s="3">
         <v>1000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1100</v>
       </c>
       <c r="K59" s="3">
         <v>1100</v>
@@ -3013,10 +3150,10 @@
         <v>1100</v>
       </c>
       <c r="M59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N59" s="3">
         <v>1200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1000</v>
       </c>
       <c r="O59" s="3">
         <v>1000</v>
@@ -3025,13 +3162,16 @@
         <v>1000</v>
       </c>
       <c r="Q59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3039,10 +3179,10 @@
         <v>1300</v>
       </c>
       <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1200</v>
       </c>
       <c r="G60" s="3">
         <v>1200</v>
@@ -3051,37 +3191,40 @@
         <v>1200</v>
       </c>
       <c r="I60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1300</v>
       </c>
       <c r="O60" s="3">
         <v>1300</v>
       </c>
       <c r="P60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3122,16 +3265,19 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3139,34 +3285,34 @@
         <v>500</v>
       </c>
       <c r="E62" s="3">
+        <v>500</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>900</v>
       </c>
       <c r="G62" s="3">
         <v>900</v>
       </c>
       <c r="H62" s="3">
+        <v>900</v>
+      </c>
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
-        <v>100</v>
-      </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="N62" s="3">
+        <v>100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -3174,14 +3320,17 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3" t="s">
+      <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,40 +3485,43 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2100</v>
       </c>
       <c r="G66" s="3">
         <v>2100</v>
       </c>
       <c r="H66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I66" s="3">
         <v>2200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1100</v>
       </c>
       <c r="J66" s="3">
         <v>1100</v>
       </c>
       <c r="K66" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="L66" s="3">
         <v>1200</v>
       </c>
       <c r="M66" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N66" s="3">
         <v>1300</v>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,13 +3665,16 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E70" s="3">
         <v>600</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,40 +3771,43 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9800</v>
+        <v>-9600</v>
       </c>
       <c r="E72" s="3">
         <v>-9800</v>
       </c>
       <c r="F72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-9900</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-10000</v>
       </c>
       <c r="H72" s="3">
         <v>-10000</v>
       </c>
       <c r="I72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J72" s="3">
         <v>-10100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-10300</v>
       </c>
       <c r="L72" s="3">
         <v>-10300</v>
       </c>
       <c r="M72" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="N72" s="3">
         <v>-10400</v>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3">
         <v>-10400</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-10400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,46 +3983,49 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1200</v>
       </c>
       <c r="H76" s="3">
         <v>-1200</v>
       </c>
       <c r="I76" s="3">
-        <v>-1400</v>
+        <v>-1200</v>
       </c>
       <c r="J76" s="3">
         <v>-1400</v>
       </c>
       <c r="K76" s="3">
-        <v>-1600</v>
+        <v>-1400</v>
       </c>
       <c r="L76" s="3">
         <v>-1600</v>
       </c>
       <c r="M76" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="N76" s="3">
         <v>-1800</v>
       </c>
       <c r="O76" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="P76" s="3">
         <v>-1700</v>
@@ -3848,10 +4034,13 @@
         <v>-1700</v>
       </c>
       <c r="R76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,95 +4089,101 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,34 +4539,37 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
         <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
         <v>100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
@@ -4415,8 +4636,8 @@
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4575,11 +4805,11 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,13 +5058,16 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4845,11 +5091,11 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,40 +5164,43 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
         <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>FULO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,10 +755,10 @@
         <v>900</v>
       </c>
       <c r="E8" s="3">
+        <v>900</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>600</v>
       </c>
       <c r="G8" s="3">
         <v>600</v>
@@ -766,7 +770,7 @@
         <v>600</v>
       </c>
       <c r="J8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K8" s="3">
         <v>500</v>
@@ -778,10 +782,10 @@
         <v>500</v>
       </c>
       <c r="N8" s="3">
+        <v>500</v>
+      </c>
+      <c r="O8" s="3">
         <v>400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>500</v>
       </c>
       <c r="P8" s="3">
         <v>500</v>
@@ -790,13 +794,16 @@
         <v>500</v>
       </c>
       <c r="R8" s="3">
+        <v>500</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,14 +835,14 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>-100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
@@ -843,13 +850,16 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>-100</v>
       </c>
-      <c r="S9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,10 +867,10 @@
         <v>800</v>
       </c>
       <c r="E10" s="3">
+        <v>800</v>
+      </c>
+      <c r="F10" s="3">
         <v>600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>500</v>
       </c>
       <c r="G10" s="3">
         <v>500</v>
@@ -872,7 +882,7 @@
         <v>500</v>
       </c>
       <c r="J10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K10" s="3">
         <v>400</v>
@@ -881,7 +891,7 @@
         <v>400</v>
       </c>
       <c r="M10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N10" s="3">
         <v>500</v>
@@ -896,13 +906,16 @@
         <v>500</v>
       </c>
       <c r="R10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1116,12 +1139,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,31 +1178,32 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>700</v>
       </c>
       <c r="F17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
       </c>
       <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
@@ -1185,37 +1212,40 @@
         <v>500</v>
       </c>
       <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
@@ -1223,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1238,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>100</v>
@@ -1256,10 +1286,13 @@
         <v>100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1309,7 +1343,7 @@
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1332,13 +1366,16 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
@@ -1350,10 +1387,10 @@
         <v>100</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>100</v>
@@ -1362,16 +1399,16 @@
         <v>100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
@@ -1380,13 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1420,12 +1460,12 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1438,13 +1478,16 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
@@ -1456,28 +1499,28 @@
         <v>100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -1486,13 +1529,16 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1502,8 +1548,8 @@
       <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1526,26 +1572,29 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,13 +1646,16 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
@@ -1615,10 +1667,10 @@
         <v>100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
@@ -1627,16 +1679,16 @@
         <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -1645,51 +1697,54 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -1698,13 +1753,16 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1767,8 +1828,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1789,14 +1850,14 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -1804,13 +1865,16 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,16 +1997,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -1945,7 +2015,7 @@
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1968,43 +2038,46 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,43 +2150,46 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,43 +2313,44 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="3">
         <v>800</v>
       </c>
       <c r="F41" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G41" s="3">
         <v>600</v>
       </c>
       <c r="H41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I41" s="3">
         <v>500</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2466,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2492,34 +2591,37 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>600</v>
       </c>
       <c r="G46" s="3">
         <v>600</v>
       </c>
       <c r="H46" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I46" s="3">
         <v>500</v>
       </c>
       <c r="J46" s="3">
+        <v>500</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
@@ -2528,25 +2630,28 @@
         <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,25 +2715,25 @@
         <v>600</v>
       </c>
       <c r="E48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
       </c>
       <c r="G48" s="3">
+        <v>700</v>
+      </c>
+      <c r="H48" s="3">
         <v>1000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1100</v>
       </c>
       <c r="I48" s="3">
         <v>1100</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2637,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2646,13 +2754,16 @@
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2858,13 +2978,16 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,22 +3039,25 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1600</v>
       </c>
       <c r="H54" s="3">
         <v>1600</v>
@@ -2940,20 +3066,20 @@
         <v>1600</v>
       </c>
       <c r="J54" s="3">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
       </c>
       <c r="L54" s="3">
+        <v>300</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
@@ -2961,16 +3087,19 @@
         <v>100</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3026,7 +3157,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3050,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3062,10 +3193,13 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3075,8 +3209,8 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3103,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3117,22 +3251,25 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1200</v>
       </c>
       <c r="H59" s="3">
         <v>1200</v>
@@ -3141,10 +3278,10 @@
         <v>1200</v>
       </c>
       <c r="J59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1100</v>
       </c>
       <c r="L59" s="3">
         <v>1100</v>
@@ -3153,10 +3290,10 @@
         <v>1100</v>
       </c>
       <c r="N59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O59" s="3">
         <v>1200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1000</v>
       </c>
       <c r="P59" s="3">
         <v>1000</v>
@@ -3165,27 +3302,30 @@
         <v>1000</v>
       </c>
       <c r="R59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E60" s="3">
         <v>1300</v>
       </c>
       <c r="F60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G60" s="3">
         <v>1100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1200</v>
       </c>
       <c r="H60" s="3">
         <v>1200</v>
@@ -3194,37 +3334,40 @@
         <v>1200</v>
       </c>
       <c r="J60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1300</v>
       </c>
       <c r="P60" s="3">
         <v>1300</v>
       </c>
       <c r="Q60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3268,54 +3411,57 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
       </c>
       <c r="F62" s="3">
+        <v>500</v>
+      </c>
+      <c r="G62" s="3">
         <v>600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>900</v>
       </c>
       <c r="H62" s="3">
         <v>900</v>
       </c>
       <c r="I62" s="3">
+        <v>900</v>
+      </c>
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
-        <v>100</v>
-      </c>
       <c r="K62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
+      <c r="O62" s="3">
+        <v>100</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -3323,14 +3469,17 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3" t="s">
+      <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,43 +3643,46 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2100</v>
       </c>
       <c r="H66" s="3">
         <v>2100</v>
       </c>
       <c r="I66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J66" s="3">
         <v>2200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1100</v>
       </c>
       <c r="K66" s="3">
         <v>1100</v>
       </c>
       <c r="L66" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M66" s="3">
         <v>1200</v>
       </c>
       <c r="N66" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="O66" s="3">
         <v>1300</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,16 +3833,19 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>400</v>
+      </c>
+      <c r="E70" s="3">
         <v>300</v>
-      </c>
-      <c r="E70" s="3">
-        <v>600</v>
       </c>
       <c r="F70" s="3">
         <v>600</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,43 +3945,46 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9600</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-9800</v>
       </c>
       <c r="F72" s="3">
         <v>-9800</v>
       </c>
       <c r="G72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H72" s="3">
         <v>-9900</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-10000</v>
       </c>
       <c r="I72" s="3">
         <v>-10000</v>
       </c>
       <c r="J72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-10100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-10300</v>
       </c>
       <c r="M72" s="3">
         <v>-10300</v>
       </c>
       <c r="N72" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="O72" s="3">
         <v>-10400</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>-10400</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-10400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,49 +4169,52 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-1200</v>
       </c>
       <c r="I76" s="3">
         <v>-1200</v>
       </c>
       <c r="J76" s="3">
-        <v>-1400</v>
+        <v>-1200</v>
       </c>
       <c r="K76" s="3">
         <v>-1400</v>
       </c>
       <c r="L76" s="3">
-        <v>-1600</v>
+        <v>-1400</v>
       </c>
       <c r="M76" s="3">
         <v>-1600</v>
       </c>
       <c r="N76" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="O76" s="3">
         <v>-1800</v>
       </c>
       <c r="P76" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="Q76" s="3">
         <v>-1700</v>
@@ -4037,10 +4223,13 @@
         <v>-1700</v>
       </c>
       <c r="S76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,101 +4281,107 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,37 +4756,40 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
         <v>100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
         <v>100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,8 +4848,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -4639,8 +4860,8 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4808,11 +5038,11 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,17 +5304,20 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5094,11 +5340,11 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,43 +5416,46 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
         <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>FULO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,113 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>600</v>
       </c>
       <c r="I8" s="3">
         <v>600</v>
@@ -773,10 +780,10 @@
         <v>600</v>
       </c>
       <c r="K8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M8" s="3">
         <v>500</v>
@@ -785,25 +792,31 @@
         <v>500</v>
       </c>
       <c r="O8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P8" s="3">
         <v>500</v>
       </c>
       <c r="Q8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R8" s="3">
         <v>500</v>
       </c>
       <c r="S8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T8" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>300</v>
+      </c>
+      <c r="V8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,45 +851,51 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>-100</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>-100</v>
       </c>
-      <c r="T9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>900</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>500</v>
       </c>
       <c r="I10" s="3">
         <v>500</v>
@@ -885,19 +904,19 @@
         <v>500</v>
       </c>
       <c r="K10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M10" s="3">
         <v>400</v>
       </c>
       <c r="N10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P10" s="3">
         <v>500</v>
@@ -909,13 +928,19 @@
         <v>500</v>
       </c>
       <c r="S10" s="3">
+        <v>500</v>
+      </c>
+      <c r="T10" s="3">
+        <v>500</v>
+      </c>
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1142,15 +1187,15 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,28 +1230,30 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>700</v>
       </c>
       <c r="F17" s="3">
+        <v>600</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>700</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>600</v>
@@ -1209,34 +1262,40 @@
         <v>500</v>
       </c>
       <c r="L17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>500</v>
       </c>
       <c r="N17" s="3">
+        <v>500</v>
+      </c>
+      <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,25 +1303,25 @@
         <v>300</v>
       </c>
       <c r="E18" s="3">
+        <v>300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>300</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1271,28 +1330,34 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>100</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1328,28 +1395,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1369,20 +1436,26 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
         <v>100</v>
       </c>
@@ -1390,48 +1463,54 @@
         <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
         <v>100</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>100</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1463,15 +1542,15 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1481,20 +1560,26 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
         <v>100</v>
       </c>
@@ -1502,7 +1587,7 @@
         <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
         <v>100</v>
@@ -1517,45 +1602,51 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-300</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1575,26 +1666,32 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1746,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1658,10 +1761,10 @@
         <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G26" s="3">
         <v>100</v>
@@ -1670,43 +1773,49 @@
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,19 +1823,19 @@
         <v>300</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
         <v>100</v>
@@ -1741,28 +1850,34 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,11 +1952,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1853,28 +1974,34 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2000,28 +2139,28 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2041,8 +2180,14 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2050,19 +2195,19 @@
         <v>300</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
         <v>100</v>
@@ -2083,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
@@ -2097,8 +2242,14 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2304,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2162,19 +2319,19 @@
         <v>300</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
         <v>100</v>
@@ -2195,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -2209,69 +2366,81 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,49 +2485,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2568,13 +2765,13 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2594,49 +2791,55 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -2648,10 +2851,16 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2718,28 +2933,28 @@
         <v>600</v>
       </c>
       <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>600</v>
+      </c>
+      <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3">
-        <v>100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2748,22 +2963,28 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,16 +3163,22 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2981,13 +3220,19 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1300</v>
       </c>
       <c r="H54" s="3">
         <v>1600</v>
       </c>
       <c r="I54" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="J54" s="3">
         <v>1600</v>
       </c>
       <c r="K54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M54" s="3">
         <v>300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>300</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
       <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
-      <c r="T54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3160,10 +3421,10 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -3184,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3196,21 +3457,27 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3240,110 +3507,122 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E59" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="F59" s="3">
         <v>1300</v>
       </c>
       <c r="G59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I59" s="3">
         <v>1100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1200</v>
       </c>
       <c r="J59" s="3">
         <v>1200</v>
       </c>
       <c r="K59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M59" s="3">
         <v>1000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1100</v>
       </c>
       <c r="N59" s="3">
         <v>1100</v>
       </c>
       <c r="O59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1000</v>
       </c>
       <c r="R59" s="3">
         <v>1000</v>
       </c>
       <c r="S59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T59" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>900</v>
+      </c>
+      <c r="V59" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1200</v>
       </c>
       <c r="J60" s="3">
         <v>1200</v>
       </c>
       <c r="K60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M60" s="3">
         <v>1000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1200</v>
       </c>
       <c r="N60" s="3">
         <v>1100</v>
@@ -3352,22 +3631,28 @@
         <v>1200</v>
       </c>
       <c r="P60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1000</v>
       </c>
       <c r="T60" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V60" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3414,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3431,55 +3722,61 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>400</v>
+      </c>
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
-        <v>100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>100</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>200</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>200</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3955,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,7 +3970,7 @@
         <v>1800</v>
       </c>
       <c r="E66" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="F66" s="3">
         <v>1800</v>
@@ -3664,31 +3979,31 @@
         <v>1700</v>
       </c>
       <c r="H66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1300</v>
       </c>
       <c r="Q66" s="3">
         <v>1300</v>
@@ -3702,8 +4017,14 @@
       <c r="T66" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V66" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3845,13 +4180,13 @@
         <v>400</v>
       </c>
       <c r="E70" s="3">
+        <v>400</v>
+      </c>
+      <c r="F70" s="3">
+        <v>400</v>
+      </c>
+      <c r="G70" s="3">
         <v>300</v>
-      </c>
-      <c r="F70" s="3">
-        <v>600</v>
-      </c>
-      <c r="G70" s="3">
-        <v>600</v>
       </c>
       <c r="H70" s="3">
         <v>600</v>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>600</v>
+      </c>
+      <c r="V70" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,49 +4289,55 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-9800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-10000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-10100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-10200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-10300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-10300</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-10400</v>
       </c>
       <c r="Q72" s="3">
         <v>-10400</v>
@@ -4004,8 +4351,14 @@
       <c r="T72" s="3">
         <v>-10400</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-10400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-1700</v>
       </c>
       <c r="S76" s="3">
         <v>-1700</v>
       </c>
       <c r="T76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="V76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4661,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,19 +4743,19 @@
         <v>300</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
         <v>100</v>
@@ -4387,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
@@ -4401,8 +4790,14 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,43 +5186,49 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4851,11 +5292,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
@@ -4863,11 +5304,11 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5041,14 +5500,14 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,23 +5792,29 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5343,14 +5834,14 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,31 +5931,31 @@
         <v>400</v>
       </c>
       <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>400</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>100</v>
@@ -5461,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>FULO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,16 +769,16 @@
         <v>1000</v>
       </c>
       <c r="F8" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G8" s="3">
         <v>900</v>
       </c>
       <c r="H8" s="3">
+        <v>900</v>
+      </c>
+      <c r="I8" s="3">
         <v>700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>600</v>
       </c>
       <c r="J8" s="3">
         <v>600</v>
@@ -786,7 +790,7 @@
         <v>600</v>
       </c>
       <c r="M8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N8" s="3">
         <v>500</v>
@@ -798,10 +802,10 @@
         <v>500</v>
       </c>
       <c r="Q8" s="3">
+        <v>500</v>
+      </c>
+      <c r="R8" s="3">
         <v>400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>500</v>
       </c>
       <c r="S8" s="3">
         <v>500</v>
@@ -810,18 +814,21 @@
         <v>500</v>
       </c>
       <c r="U8" s="3">
+        <v>500</v>
+      </c>
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -857,14 +864,14 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>-100</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
@@ -872,33 +879,36 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>-100</v>
       </c>
-      <c r="V9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3">
         <v>900</v>
       </c>
       <c r="F10" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G10" s="3">
         <v>800</v>
       </c>
       <c r="H10" s="3">
+        <v>800</v>
+      </c>
+      <c r="I10" s="3">
         <v>600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>500</v>
       </c>
       <c r="J10" s="3">
         <v>500</v>
@@ -910,7 +920,7 @@
         <v>500</v>
       </c>
       <c r="M10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N10" s="3">
         <v>400</v>
@@ -919,7 +929,7 @@
         <v>400</v>
       </c>
       <c r="P10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q10" s="3">
         <v>500</v>
@@ -934,13 +944,16 @@
         <v>500</v>
       </c>
       <c r="U10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1193,12 +1216,12 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,40 +1258,41 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>700</v>
       </c>
       <c r="F17" s="3">
+        <v>700</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>700</v>
       </c>
       <c r="H17" s="3">
         <v>700</v>
       </c>
       <c r="I17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J17" s="3">
         <v>600</v>
       </c>
       <c r="K17" s="3">
+        <v>600</v>
+      </c>
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
@@ -1274,33 +1301,36 @@
         <v>500</v>
       </c>
       <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
-      </c>
-      <c r="S17" s="3">
-        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
       </c>
       <c r="U17" s="3">
+        <v>400</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E18" s="3">
         <v>300</v>
@@ -1309,11 +1339,11 @@
         <v>300</v>
       </c>
       <c r="G18" s="3">
+        <v>300</v>
+      </c>
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1321,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1336,16 +1366,16 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>100</v>
@@ -1354,10 +1384,13 @@
         <v>100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1401,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
@@ -1419,7 +1453,7 @@
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,14 +1488,14 @@
         <v>400</v>
       </c>
       <c r="E21" s="3">
+        <v>400</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
@@ -1469,10 +1506,10 @@
         <v>100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>100</v>
@@ -1481,16 +1518,16 @@
         <v>100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
@@ -1499,21 +1536,24 @@
         <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1548,12 +1588,12 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,14 +1618,14 @@
         <v>400</v>
       </c>
       <c r="E23" s="3">
+        <v>400</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
@@ -1593,28 +1636,28 @@
         <v>100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
@@ -1623,13 +1666,16 @@
         <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1637,10 +1683,10 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
@@ -1648,8 +1694,8 @@
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1672,26 +1718,29 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>8</v>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,14 +1813,14 @@
         <v>300</v>
       </c>
       <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
@@ -1779,10 +1831,10 @@
         <v>100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>100</v>
@@ -1791,16 +1843,16 @@
         <v>100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
@@ -1809,13 +1861,16 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,46 +1878,46 @@
         <v>300</v>
       </c>
       <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
@@ -1871,13 +1926,16 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1958,8 +2019,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1980,14 +2041,14 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -1995,13 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2145,16 +2215,16 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
@@ -2163,7 +2233,7 @@
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2186,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,43 +2268,43 @@
         <v>300</v>
       </c>
       <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,43 +2398,43 @@
         <v>300</v>
       </c>
       <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,52 +2573,53 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>800</v>
       </c>
       <c r="H41" s="3">
         <v>800</v>
       </c>
       <c r="I41" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J41" s="3">
         <v>600</v>
       </c>
       <c r="K41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L41" s="3">
         <v>500</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2771,10 +2870,10 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2797,43 +2896,46 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>600</v>
       </c>
       <c r="J46" s="3">
         <v>600</v>
       </c>
       <c r="K46" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L46" s="3">
         <v>500</v>
       </c>
       <c r="M46" s="3">
+        <v>500</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
@@ -2842,25 +2944,28 @@
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,13 +3026,16 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
@@ -2939,25 +3047,25 @@
         <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
       </c>
       <c r="J48" s="3">
+        <v>700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1100</v>
       </c>
       <c r="L48" s="3">
         <v>1100</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2969,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -2978,13 +3086,16 @@
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,20 +3286,23 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
@@ -3226,13 +3346,16 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,31 +3416,34 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1600</v>
       </c>
       <c r="K54" s="3">
         <v>1600</v>
@@ -3326,20 +3452,20 @@
         <v>1600</v>
       </c>
       <c r="M54" s="3">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="N54" s="3">
         <v>300</v>
       </c>
       <c r="O54" s="3">
+        <v>300</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
@@ -3347,16 +3473,19 @@
         <v>100</v>
       </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
       <c r="V54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3427,7 +3558,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3451,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3463,10 +3594,13 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3513,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3539,19 +3676,19 @@
         <v>1400</v>
       </c>
       <c r="F59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1200</v>
       </c>
       <c r="K59" s="3">
         <v>1200</v>
@@ -3560,10 +3697,10 @@
         <v>1200</v>
       </c>
       <c r="M59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N59" s="3">
         <v>1000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1100</v>
       </c>
       <c r="O59" s="3">
         <v>1100</v>
@@ -3572,10 +3709,10 @@
         <v>1100</v>
       </c>
       <c r="Q59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R59" s="3">
         <v>1200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1000</v>
       </c>
       <c r="S59" s="3">
         <v>1000</v>
@@ -3584,13 +3721,16 @@
         <v>1000</v>
       </c>
       <c r="U59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3601,19 +3741,19 @@
         <v>1500</v>
       </c>
       <c r="F60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G60" s="3">
         <v>1400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1300</v>
       </c>
       <c r="H60" s="3">
         <v>1300</v>
       </c>
       <c r="I60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J60" s="3">
         <v>1100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1200</v>
       </c>
       <c r="K60" s="3">
         <v>1200</v>
@@ -3622,37 +3762,40 @@
         <v>1200</v>
       </c>
       <c r="M60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1300</v>
       </c>
       <c r="S60" s="3">
         <v>1300</v>
       </c>
       <c r="T60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3705,21 +3848,24 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
@@ -3728,40 +3874,40 @@
         <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
       </c>
       <c r="I62" s="3">
+        <v>500</v>
+      </c>
+      <c r="J62" s="3">
         <v>600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>900</v>
       </c>
       <c r="K62" s="3">
         <v>900</v>
       </c>
       <c r="L62" s="3">
+        <v>900</v>
+      </c>
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
-        <v>100</v>
-      </c>
       <c r="N62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
+      <c r="R62" s="3">
+        <v>100</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
@@ -3769,14 +3915,17 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3">
         <v>200</v>
       </c>
-      <c r="V62" s="3" t="s">
+      <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3970,43 +4128,43 @@
         <v>1800</v>
       </c>
       <c r="E66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2100</v>
       </c>
       <c r="K66" s="3">
         <v>2100</v>
       </c>
       <c r="L66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M66" s="3">
         <v>2200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1100</v>
       </c>
       <c r="N66" s="3">
         <v>1100</v>
       </c>
       <c r="O66" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="P66" s="3">
         <v>1200</v>
       </c>
       <c r="Q66" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="R66" s="3">
         <v>1300</v>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4186,10 +4354,10 @@
         <v>400</v>
       </c>
       <c r="G70" s="3">
+        <v>400</v>
+      </c>
+      <c r="H70" s="3">
         <v>300</v>
-      </c>
-      <c r="H70" s="3">
-        <v>600</v>
       </c>
       <c r="I70" s="3">
         <v>600</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,52 +4466,55 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-9800</v>
       </c>
       <c r="I72" s="3">
         <v>-9800</v>
       </c>
       <c r="J72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-9900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-10000</v>
       </c>
       <c r="L72" s="3">
         <v>-10000</v>
       </c>
       <c r="M72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="N72" s="3">
         <v>-10100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-10300</v>
       </c>
       <c r="P72" s="3">
         <v>-10300</v>
       </c>
       <c r="Q72" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="R72" s="3">
         <v>-10400</v>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3">
         <v>-10400</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-10400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,58 +4726,61 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>700</v>
+      </c>
+      <c r="E76" s="3">
         <v>400</v>
       </c>
-      <c r="E76" s="3">
-        <v>100</v>
-      </c>
       <c r="F76" s="3">
+        <v>100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-1200</v>
       </c>
       <c r="L76" s="3">
         <v>-1200</v>
       </c>
       <c r="M76" s="3">
-        <v>-1400</v>
+        <v>-1200</v>
       </c>
       <c r="N76" s="3">
         <v>-1400</v>
       </c>
       <c r="O76" s="3">
-        <v>-1600</v>
+        <v>-1400</v>
       </c>
       <c r="P76" s="3">
         <v>-1600</v>
       </c>
       <c r="Q76" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="R76" s="3">
         <v>-1800</v>
       </c>
       <c r="S76" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="T76" s="3">
         <v>-1700</v>
@@ -4603,10 +4789,13 @@
         <v>-1700</v>
       </c>
       <c r="V76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="W76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,43 +4938,43 @@
         <v>300</v>
       </c>
       <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,46 +5406,49 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
         <v>100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
         <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5298,8 +5519,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -5310,8 +5531,8 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5506,11 +5736,11 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,26 +6041,29 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5840,11 +6086,11 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,52 +6171,55 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
         <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>FULO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,16 +776,16 @@
         <v>1000</v>
       </c>
       <c r="G8" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="3">
         <v>900</v>
       </c>
       <c r="I8" s="3">
+        <v>900</v>
+      </c>
+      <c r="J8" s="3">
         <v>700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>600</v>
       </c>
       <c r="K8" s="3">
         <v>600</v>
@@ -793,7 +797,7 @@
         <v>600</v>
       </c>
       <c r="N8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O8" s="3">
         <v>500</v>
@@ -805,10 +809,10 @@
         <v>500</v>
       </c>
       <c r="R8" s="3">
+        <v>500</v>
+      </c>
+      <c r="S8" s="3">
         <v>400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>500</v>
       </c>
       <c r="T8" s="3">
         <v>500</v>
@@ -817,13 +821,16 @@
         <v>500</v>
       </c>
       <c r="V8" s="3">
+        <v>500</v>
+      </c>
+      <c r="W8" s="3">
         <v>300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -831,7 +838,7 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -867,14 +874,14 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>-100</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
@@ -882,13 +889,16 @@
         <v>0</v>
       </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <v>-100</v>
       </c>
-      <c r="W9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,22 +906,22 @@
         <v>800</v>
       </c>
       <c r="E10" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F10" s="3">
         <v>900</v>
       </c>
       <c r="G10" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H10" s="3">
         <v>800</v>
       </c>
       <c r="I10" s="3">
+        <v>800</v>
+      </c>
+      <c r="J10" s="3">
         <v>600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>500</v>
       </c>
       <c r="K10" s="3">
         <v>500</v>
@@ -923,7 +933,7 @@
         <v>500</v>
       </c>
       <c r="N10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
@@ -932,7 +942,7 @@
         <v>400</v>
       </c>
       <c r="Q10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R10" s="3">
         <v>500</v>
@@ -947,13 +957,16 @@
         <v>500</v>
       </c>
       <c r="V10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1219,12 +1242,12 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,43 +1285,44 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>700</v>
       </c>
       <c r="G17" s="3">
+        <v>700</v>
+      </c>
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>700</v>
       </c>
       <c r="I17" s="3">
         <v>700</v>
       </c>
       <c r="J17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>500</v>
@@ -1304,36 +1331,39 @@
         <v>500</v>
       </c>
       <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>400</v>
       </c>
       <c r="V17" s="3">
+        <v>400</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
-      </c>
-      <c r="E18" s="3">
-        <v>300</v>
       </c>
       <c r="F18" s="3">
         <v>300</v>
@@ -1342,11 +1372,11 @@
         <v>300</v>
       </c>
       <c r="H18" s="3">
+        <v>300</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1354,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1369,16 +1399,16 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>100</v>
@@ -1387,10 +1417,13 @@
         <v>100</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1438,16 +1472,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
@@ -1456,7 +1490,7 @@
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1479,26 +1513,29 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E21" s="3">
         <v>400</v>
       </c>
       <c r="F21" s="3">
+        <v>400</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
@@ -1509,10 +1546,10 @@
         <v>100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>100</v>
@@ -1521,16 +1558,16 @@
         <v>100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
@@ -1539,13 +1576,16 @@
         <v>0</v>
       </c>
       <c r="V21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1555,8 +1595,8 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1591,12 +1631,12 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1609,26 +1649,29 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
         <v>400</v>
       </c>
       <c r="F23" s="3">
+        <v>400</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
@@ -1639,28 +1682,28 @@
         <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
@@ -1669,13 +1712,16 @@
         <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1686,10 +1732,10 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>-300</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
@@ -1697,8 +1743,8 @@
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1721,26 +1767,29 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>8</v>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,26 +1853,29 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
         <v>300</v>
       </c>
       <c r="F26" s="3">
+        <v>300</v>
+      </c>
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
         <v>100</v>
       </c>
@@ -1834,10 +1886,10 @@
         <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>100</v>
@@ -1846,16 +1898,16 @@
         <v>100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
@@ -1864,63 +1916,66 @@
         <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
         <v>300</v>
       </c>
       <c r="F27" s="3">
+        <v>300</v>
+      </c>
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
@@ -1929,13 +1984,16 @@
         <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2022,8 +2083,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2044,14 +2105,14 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2059,13 +2120,16 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-100</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2218,16 +2288,16 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
@@ -2236,7 +2306,7 @@
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2259,55 +2329,58 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
         <v>300</v>
       </c>
       <c r="F33" s="3">
+        <v>300</v>
+      </c>
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,55 +2465,58 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
         <v>300</v>
       </c>
       <c r="F35" s="3">
+        <v>300</v>
+      </c>
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,55 +2660,56 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
         <v>2100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>800</v>
       </c>
       <c r="I41" s="3">
         <v>800</v>
       </c>
       <c r="J41" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K41" s="3">
         <v>600</v>
       </c>
       <c r="L41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M41" s="3">
         <v>500</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2873,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2899,46 +2998,49 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
-      </c>
-      <c r="J46" s="3">
-        <v>600</v>
       </c>
       <c r="K46" s="3">
         <v>600</v>
       </c>
       <c r="L46" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M46" s="3">
         <v>500</v>
       </c>
       <c r="N46" s="3">
+        <v>500</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
@@ -2947,25 +3049,28 @@
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3038,7 +3146,7 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
@@ -3050,25 +3158,25 @@
         <v>600</v>
       </c>
       <c r="I48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J48" s="3">
         <v>700</v>
       </c>
       <c r="K48" s="3">
+        <v>700</v>
+      </c>
+      <c r="L48" s="3">
         <v>1000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1100</v>
       </c>
       <c r="M48" s="3">
         <v>1100</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3080,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -3089,13 +3197,16 @@
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,23 +3406,26 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
@@ -3349,13 +3469,16 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,34 +3542,37 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1600</v>
       </c>
       <c r="L54" s="3">
         <v>1600</v>
@@ -3455,20 +3581,20 @@
         <v>1600</v>
       </c>
       <c r="N54" s="3">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
@@ -3476,16 +3602,19 @@
         <v>100</v>
       </c>
       <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
-        <v>100</v>
-      </c>
       <c r="W54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3561,7 +3692,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3585,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -3597,10 +3728,13 @@
         <v>100</v>
       </c>
       <c r="W57" s="3">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3650,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3664,13 +3798,16 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E59" s="3">
         <v>1400</v>
@@ -3679,19 +3816,19 @@
         <v>1400</v>
       </c>
       <c r="G59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1200</v>
       </c>
       <c r="L59" s="3">
         <v>1200</v>
@@ -3700,10 +3837,10 @@
         <v>1200</v>
       </c>
       <c r="N59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O59" s="3">
         <v>1000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1100</v>
       </c>
       <c r="P59" s="3">
         <v>1100</v>
@@ -3712,10 +3849,10 @@
         <v>1100</v>
       </c>
       <c r="R59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S59" s="3">
         <v>1200</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1000</v>
       </c>
       <c r="T59" s="3">
         <v>1000</v>
@@ -3724,18 +3861,21 @@
         <v>1000</v>
       </c>
       <c r="V59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W59" s="3">
         <v>900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E60" s="3">
         <v>1500</v>
@@ -3744,19 +3884,19 @@
         <v>1500</v>
       </c>
       <c r="G60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H60" s="3">
         <v>1400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1300</v>
       </c>
       <c r="I60" s="3">
         <v>1300</v>
       </c>
       <c r="J60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1200</v>
       </c>
       <c r="L60" s="3">
         <v>1200</v>
@@ -3765,37 +3905,40 @@
         <v>1200</v>
       </c>
       <c r="N60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1300</v>
       </c>
       <c r="T60" s="3">
         <v>1300</v>
       </c>
       <c r="U60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3851,16 +3994,19 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3868,7 +4014,7 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
@@ -3877,40 +4023,40 @@
         <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I62" s="3">
         <v>500</v>
       </c>
       <c r="J62" s="3">
+        <v>500</v>
+      </c>
+      <c r="K62" s="3">
         <v>600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>900</v>
       </c>
       <c r="L62" s="3">
         <v>900</v>
       </c>
       <c r="M62" s="3">
+        <v>900</v>
+      </c>
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="N62" s="3">
-        <v>100</v>
-      </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
       <c r="Q62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3">
+        <v>100</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
@@ -3918,14 +4064,17 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3">
         <v>200</v>
       </c>
-      <c r="W62" s="3" t="s">
+      <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,55 +4274,58 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E66" s="3">
         <v>1800</v>
       </c>
       <c r="F66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2100</v>
       </c>
       <c r="L66" s="3">
         <v>2100</v>
       </c>
       <c r="M66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N66" s="3">
         <v>2200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1100</v>
       </c>
       <c r="O66" s="3">
         <v>1100</v>
       </c>
       <c r="P66" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Q66" s="3">
         <v>1200</v>
       </c>
       <c r="R66" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="S66" s="3">
         <v>1300</v>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4357,10 +4525,10 @@
         <v>400</v>
       </c>
       <c r="H70" s="3">
+        <v>400</v>
+      </c>
+      <c r="I70" s="3">
         <v>300</v>
-      </c>
-      <c r="I70" s="3">
-        <v>600</v>
       </c>
       <c r="J70" s="3">
         <v>600</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,55 +4640,58 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-9800</v>
       </c>
       <c r="J72" s="3">
         <v>-9800</v>
       </c>
       <c r="K72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="L72" s="3">
         <v>-9900</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-10000</v>
       </c>
       <c r="M72" s="3">
         <v>-10000</v>
       </c>
       <c r="N72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="O72" s="3">
         <v>-10100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-10300</v>
       </c>
       <c r="Q72" s="3">
         <v>-10300</v>
       </c>
       <c r="R72" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="S72" s="3">
         <v>-10400</v>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3">
         <v>-10400</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-10400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,61 +4912,64 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>900</v>
+      </c>
+      <c r="E76" s="3">
         <v>700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
-        <v>100</v>
-      </c>
       <c r="G76" s="3">
+        <v>100</v>
+      </c>
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-1200</v>
       </c>
       <c r="M76" s="3">
         <v>-1200</v>
       </c>
       <c r="N76" s="3">
-        <v>-1400</v>
+        <v>-1200</v>
       </c>
       <c r="O76" s="3">
         <v>-1400</v>
       </c>
       <c r="P76" s="3">
-        <v>-1600</v>
+        <v>-1400</v>
       </c>
       <c r="Q76" s="3">
         <v>-1600</v>
       </c>
       <c r="R76" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="S76" s="3">
         <v>-1800</v>
       </c>
       <c r="T76" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="U76" s="3">
         <v>-1700</v>
@@ -4792,10 +4978,13 @@
         <v>-1700</v>
       </c>
       <c r="W76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="X76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,125 +5048,131 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
         <v>300</v>
       </c>
       <c r="F81" s="3">
+        <v>300</v>
+      </c>
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,49 +5623,52 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
         <v>100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
         <v>100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5522,8 +5743,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -5534,8 +5755,8 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5739,11 +5969,11 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,20 +6299,20 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -6089,11 +6335,11 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,55 +6423,58 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
         <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>FULO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,119 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F8" s="3">
         <v>1000</v>
@@ -779,19 +786,19 @@
         <v>1000</v>
       </c>
       <c r="H8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>600</v>
       </c>
       <c r="M8" s="3">
         <v>600</v>
@@ -800,10 +807,10 @@
         <v>600</v>
       </c>
       <c r="O8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q8" s="3">
         <v>500</v>
@@ -812,25 +819,31 @@
         <v>500</v>
       </c>
       <c r="S8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T8" s="3">
         <v>500</v>
       </c>
       <c r="U8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V8" s="3">
         <v>500</v>
       </c>
       <c r="W8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="X8" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,10 +854,10 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -877,57 +890,63 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>-100</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
       <c r="V9" s="3">
         <v>0</v>
       </c>
       <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
         <v>-100</v>
       </c>
-      <c r="X9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>900</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>500</v>
       </c>
       <c r="M10" s="3">
         <v>500</v>
@@ -936,19 +955,19 @@
         <v>500</v>
       </c>
       <c r="O10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q10" s="3">
         <v>400</v>
       </c>
       <c r="R10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T10" s="3">
         <v>500</v>
@@ -960,13 +979,19 @@
         <v>500</v>
       </c>
       <c r="W10" s="3">
+        <v>500</v>
+      </c>
+      <c r="X10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y10" s="3">
         <v>400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1234,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1245,15 +1290,15 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1337,10 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,31 +1348,31 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>700</v>
       </c>
       <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>700</v>
+      </c>
+      <c r="M17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
@@ -1328,72 +1381,78 @@
         <v>500</v>
       </c>
       <c r="P17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q17" s="3">
         <v>500</v>
       </c>
       <c r="R17" s="3">
+        <v>500</v>
+      </c>
+      <c r="S17" s="3">
+        <v>500</v>
+      </c>
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>200</v>
+      </c>
+      <c r="G18" s="3">
         <v>400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>300</v>
       </c>
       <c r="H18" s="3">
         <v>300</v>
       </c>
       <c r="I18" s="3">
+        <v>300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>300</v>
+      </c>
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1402,28 +1461,34 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>100</v>
       </c>
       <c r="V18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>100</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1513,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1475,28 +1542,28 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1516,8 +1583,14 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,23 +1598,23 @@
         <v>300</v>
       </c>
       <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
         <v>100</v>
       </c>
@@ -1549,43 +1622,49 @@
         <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
         <v>100</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
       <c r="W21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1598,11 +1677,11 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1634,15 +1713,15 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
@@ -1652,8 +1731,14 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1661,23 +1746,23 @@
         <v>300</v>
       </c>
       <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>300</v>
+      </c>
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
         <v>100</v>
       </c>
@@ -1685,7 +1770,7 @@
         <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
         <v>100</v>
@@ -1700,28 +1785,34 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1729,28 +1820,28 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1770,26 +1861,32 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="Z24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1953,14 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1865,22 +1968,22 @@
         <v>200</v>
       </c>
       <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>200</v>
+      </c>
+      <c r="G26" s="3">
         <v>300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>600</v>
       </c>
       <c r="H26" s="3">
         <v>300</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K26" s="3">
         <v>100</v>
@@ -1889,43 +1992,49 @@
         <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
         <v>100</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1933,31 +2042,31 @@
         <v>200</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>200</v>
+      </c>
+      <c r="G27" s="3">
         <v>300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>600</v>
       </c>
       <c r="H27" s="3">
         <v>300</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K27" s="3">
         <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
         <v>100</v>
@@ -1972,28 +2081,34 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2086,11 +2207,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2108,28 +2229,34 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-100</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2397,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2291,28 +2430,28 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2332,8 +2471,14 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2341,31 +2486,31 @@
         <v>200</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3">
         <v>300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>600</v>
       </c>
       <c r="H33" s="3">
         <v>300</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K33" s="3">
         <v>100</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>100</v>
@@ -2386,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
@@ -2400,8 +2545,14 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2619,14 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2477,31 +2634,31 @@
         <v>200</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>200</v>
+      </c>
+      <c r="G35" s="3">
         <v>300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>600</v>
       </c>
       <c r="H35" s="3">
         <v>300</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>100</v>
@@ -2522,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
@@ -2536,81 +2693,93 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,61 +2832,63 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F41" s="3">
         <v>2500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2729,8 +2902,14 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2976,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +3050,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3124,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2975,13 +3172,13 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3001,61 +3198,67 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F46" s="3">
         <v>2500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -3067,10 +3270,16 @@
         <v>0</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,22 +3346,28 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>600</v>
@@ -3161,28 +3376,28 @@
         <v>600</v>
       </c>
       <c r="J48" s="3">
+        <v>600</v>
+      </c>
+      <c r="K48" s="3">
+        <v>600</v>
+      </c>
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1100</v>
       </c>
-      <c r="O48" s="3">
-        <v>100</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3191,22 +3406,28 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,29 +3642,35 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
@@ -3472,13 +3711,19 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F54" s="3">
         <v>3100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1300</v>
       </c>
       <c r="L54" s="3">
         <v>1600</v>
       </c>
       <c r="M54" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="N54" s="3">
         <v>1600</v>
       </c>
       <c r="O54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U54" s="3">
         <v>100</v>
       </c>
       <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
-        <v>100</v>
-      </c>
-      <c r="X54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3924,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3695,10 +3956,10 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3719,10 +3980,10 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
@@ -3731,10 +3992,16 @@
         <v>100</v>
       </c>
       <c r="X57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3787,134 +4054,146 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
-        <v>1400</v>
-      </c>
       <c r="F59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G59" s="3">
         <v>1400</v>
       </c>
       <c r="H59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I59" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="J59" s="3">
         <v>1300</v>
       </c>
       <c r="K59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M59" s="3">
         <v>1100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1200</v>
       </c>
       <c r="N59" s="3">
         <v>1200</v>
       </c>
       <c r="O59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1000</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1100</v>
       </c>
       <c r="R59" s="3">
         <v>1100</v>
       </c>
       <c r="S59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U59" s="3">
         <v>1200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1000</v>
       </c>
       <c r="V59" s="3">
         <v>1000</v>
       </c>
       <c r="W59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="X59" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
-        <v>1500</v>
-      </c>
       <c r="F60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G60" s="3">
         <v>1500</v>
       </c>
       <c r="H60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1200</v>
       </c>
       <c r="N60" s="3">
         <v>1200</v>
       </c>
       <c r="O60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1200</v>
       </c>
       <c r="R60" s="3">
         <v>1100</v>
@@ -3923,22 +4202,28 @@
         <v>1200</v>
       </c>
       <c r="T60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="W60" s="3">
-        <v>1000</v>
       </c>
       <c r="X60" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3997,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -4005,76 +4290,88 @@
       <c r="X61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
       </c>
       <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>400</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1000</v>
       </c>
-      <c r="O62" s="3">
-        <v>100</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S62" s="3">
-        <v>100</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>100</v>
+      </c>
+      <c r="U62" s="3">
+        <v>100</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
-        <v>200</v>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4586,14 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,19 +4601,19 @@
         <v>1900</v>
       </c>
       <c r="E66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G66" s="3">
         <v>1800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1900</v>
       </c>
       <c r="H66" s="3">
         <v>1800</v>
       </c>
       <c r="I66" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="J66" s="3">
         <v>1800</v>
@@ -4307,31 +4622,31 @@
         <v>1700</v>
       </c>
       <c r="L66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>1300</v>
       </c>
       <c r="U66" s="3">
         <v>1300</v>
@@ -4345,8 +4660,14 @@
       <c r="X66" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4528,13 +4863,13 @@
         <v>400</v>
       </c>
       <c r="I70" s="3">
+        <v>400</v>
+      </c>
+      <c r="J70" s="3">
+        <v>400</v>
+      </c>
+      <c r="K70" s="3">
         <v>300</v>
-      </c>
-      <c r="J70" s="3">
-        <v>600</v>
-      </c>
-      <c r="K70" s="3">
-        <v>600</v>
       </c>
       <c r="L70" s="3">
         <v>600</v>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,61 +4984,67 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-9600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-9800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-9800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-9900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-10000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-10000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-10100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-10300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-10300</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-10400</v>
       </c>
       <c r="U72" s="3">
         <v>-10400</v>
@@ -4711,8 +5058,14 @@
       <c r="X72" s="3">
         <v>-10400</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>-10400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F76" s="3">
         <v>900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3">
-        <v>100</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
+        <v>100</v>
+      </c>
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1800</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-1700</v>
       </c>
       <c r="W76" s="3">
         <v>-1700</v>
       </c>
       <c r="X76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5428,93 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5133,31 +5522,31 @@
         <v>200</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>200</v>
+      </c>
+      <c r="G81" s="3">
         <v>300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>600</v>
       </c>
       <c r="H81" s="3">
         <v>300</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K81" s="3">
         <v>100</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>100</v>
@@ -5178,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
@@ -5192,8 +5581,14 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5683,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6053,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,46 +6068,46 @@
         <v>400</v>
       </c>
       <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>400</v>
+      </c>
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5694,8 +6127,14 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6159,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5746,11 +6187,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -5758,11 +6199,11 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5788,8 +6229,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6377,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5972,14 +6431,14 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6451,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,35 +6775,41 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6338,14 +6829,14 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +6849,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,52 +6923,58 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F102" s="3">
         <v>400</v>
       </c>
       <c r="G102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H102" s="3">
         <v>400</v>
       </c>
       <c r="I102" s="3">
+        <v>200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>100</v>
@@ -6480,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
@@ -6492,6 +6995,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>FULO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -780,7 +784,7 @@
         <v>1100</v>
       </c>
       <c r="F8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G8" s="3">
         <v>1000</v>
@@ -792,16 +796,16 @@
         <v>1000</v>
       </c>
       <c r="J8" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K8" s="3">
         <v>900</v>
       </c>
       <c r="L8" s="3">
+        <v>900</v>
+      </c>
+      <c r="M8" s="3">
         <v>700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>600</v>
       </c>
       <c r="N8" s="3">
         <v>600</v>
@@ -813,7 +817,7 @@
         <v>600</v>
       </c>
       <c r="Q8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R8" s="3">
         <v>500</v>
@@ -825,10 +829,10 @@
         <v>500</v>
       </c>
       <c r="U8" s="3">
+        <v>500</v>
+      </c>
+      <c r="V8" s="3">
         <v>400</v>
-      </c>
-      <c r="V8" s="3">
-        <v>500</v>
       </c>
       <c r="W8" s="3">
         <v>500</v>
@@ -837,13 +841,16 @@
         <v>500</v>
       </c>
       <c r="Y8" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z8" s="3">
         <v>300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -860,7 +867,7 @@
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -896,14 +903,14 @@
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>-100</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
       <c r="W9" s="3">
         <v>0</v>
       </c>
@@ -911,13 +918,16 @@
         <v>0</v>
       </c>
       <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
         <v>-100</v>
       </c>
-      <c r="Z9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -928,28 +938,28 @@
         <v>900</v>
       </c>
       <c r="F10" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G10" s="3">
         <v>800</v>
       </c>
       <c r="H10" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I10" s="3">
         <v>900</v>
       </c>
       <c r="J10" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K10" s="3">
         <v>800</v>
       </c>
       <c r="L10" s="3">
+        <v>800</v>
+      </c>
+      <c r="M10" s="3">
         <v>600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>500</v>
       </c>
       <c r="N10" s="3">
         <v>500</v>
@@ -961,7 +971,7 @@
         <v>500</v>
       </c>
       <c r="Q10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R10" s="3">
         <v>400</v>
@@ -970,7 +980,7 @@
         <v>400</v>
       </c>
       <c r="T10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U10" s="3">
         <v>500</v>
@@ -985,13 +995,16 @@
         <v>500</v>
       </c>
       <c r="Y10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1296,12 +1319,12 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1348,43 +1375,43 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>700</v>
       </c>
       <c r="I17" s="3">
         <v>700</v>
       </c>
       <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
       </c>
       <c r="M17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>500</v>
       </c>
       <c r="R17" s="3">
         <v>500</v>
@@ -1393,28 +1420,31 @@
         <v>500</v>
       </c>
       <c r="T17" s="3">
+        <v>500</v>
+      </c>
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
-      </c>
-      <c r="W17" s="3">
-        <v>400</v>
       </c>
       <c r="X17" s="3">
         <v>400</v>
       </c>
       <c r="Y17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,16 +1452,16 @@
         <v>300</v>
       </c>
       <c r="E18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F18" s="3">
         <v>200</v>
       </c>
       <c r="G18" s="3">
+        <v>200</v>
+      </c>
+      <c r="H18" s="3">
         <v>400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>300</v>
       </c>
       <c r="I18" s="3">
         <v>300</v>
@@ -1440,11 +1470,11 @@
         <v>300</v>
       </c>
       <c r="K18" s="3">
+        <v>300</v>
+      </c>
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1452,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -1467,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>100</v>
-      </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
         <v>100</v>
@@ -1485,10 +1515,13 @@
         <v>100</v>
       </c>
       <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1548,16 +1582,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
@@ -1566,7 +1600,7 @@
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1589,35 +1623,38 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>400</v>
       </c>
       <c r="H21" s="3">
         <v>400</v>
       </c>
       <c r="I21" s="3">
+        <v>400</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
@@ -1628,10 +1665,10 @@
         <v>100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>100</v>
@@ -1640,16 +1677,16 @@
         <v>100</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
-        <v>100</v>
-      </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W21" s="3">
         <v>0</v>
@@ -1658,73 +1695,76 @@
         <v>0</v>
       </c>
       <c r="Y21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
@@ -1737,35 +1777,38 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>400</v>
       </c>
       <c r="H23" s="3">
         <v>400</v>
       </c>
       <c r="I23" s="3">
+        <v>400</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
         <v>100</v>
       </c>
@@ -1776,28 +1819,28 @@
         <v>100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
         <v>0</v>
@@ -1806,13 +1849,16 @@
         <v>0</v>
       </c>
       <c r="Y23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1820,10 +1866,10 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1832,10 +1878,10 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-300</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
@@ -1843,8 +1889,8 @@
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1867,26 +1913,29 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>8</v>
+      <c r="Y24" s="3">
+        <v>0</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,8 +2008,11 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1974,20 +2026,20 @@
         <v>200</v>
       </c>
       <c r="G26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H26" s="3">
         <v>300</v>
       </c>
       <c r="I26" s="3">
+        <v>300</v>
+      </c>
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
         <v>100</v>
       </c>
@@ -1998,10 +2050,10 @@
         <v>100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>100</v>
@@ -2010,16 +2062,16 @@
         <v>100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>100</v>
-      </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W26" s="3">
         <v>0</v>
@@ -2028,72 +2080,75 @@
         <v>0</v>
       </c>
       <c r="Y26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>300</v>
       </c>
       <c r="H27" s="3">
         <v>300</v>
       </c>
       <c r="I27" s="3">
+        <v>300</v>
+      </c>
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W27" s="3">
         <v>0</v>
@@ -2102,13 +2157,16 @@
         <v>0</v>
       </c>
       <c r="Y27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2213,8 +2274,8 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2235,14 +2296,14 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
@@ -2250,13 +2311,16 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-100</v>
       </c>
-      <c r="Z29" s="3" t="s">
+      <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2436,16 +2506,16 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
@@ -2454,7 +2524,7 @@
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2477,64 +2547,67 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>300</v>
       </c>
       <c r="H33" s="3">
         <v>300</v>
       </c>
       <c r="I33" s="3">
+        <v>300</v>
+      </c>
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
@@ -2551,8 +2624,11 @@
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,64 +2701,67 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>300</v>
       </c>
       <c r="H35" s="3">
         <v>300</v>
       </c>
       <c r="I35" s="3">
+        <v>300</v>
+      </c>
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
@@ -2699,87 +2778,93 @@
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,64 +2920,65 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>800</v>
       </c>
       <c r="L41" s="3">
         <v>800</v>
       </c>
       <c r="M41" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N41" s="3">
         <v>600</v>
       </c>
       <c r="O41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P41" s="3">
         <v>500</v>
       </c>
       <c r="Q41" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,13 +3226,16 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3178,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3204,55 +3303,58 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E46" s="3">
         <v>3000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
-      </c>
-      <c r="M46" s="3">
-        <v>600</v>
       </c>
       <c r="N46" s="3">
         <v>600</v>
       </c>
       <c r="O46" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P46" s="3">
         <v>500</v>
       </c>
       <c r="Q46" s="3">
+        <v>500</v>
+      </c>
+      <c r="R46" s="3">
         <v>300</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
@@ -3261,25 +3363,28 @@
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3361,7 +3469,7 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
@@ -3370,7 +3478,7 @@
         <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
@@ -3382,25 +3490,25 @@
         <v>600</v>
       </c>
       <c r="L48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
       </c>
       <c r="N48" s="3">
+        <v>700</v>
+      </c>
+      <c r="O48" s="3">
         <v>1000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1100</v>
       </c>
       <c r="P48" s="3">
         <v>1100</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3412,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
@@ -3421,13 +3529,16 @@
         <v>100</v>
       </c>
       <c r="Y48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3657,23 +3777,23 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
@@ -3717,13 +3837,16 @@
         <v>0</v>
       </c>
       <c r="Y52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,43 +3919,46 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1600</v>
       </c>
       <c r="O54" s="3">
         <v>1600</v>
@@ -3841,20 +3967,20 @@
         <v>1600</v>
       </c>
       <c r="Q54" s="3">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
       <c r="S54" s="3">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
       <c r="V54" s="3">
         <v>100</v>
       </c>
@@ -3862,16 +3988,19 @@
         <v>100</v>
       </c>
       <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3">
-        <v>100</v>
-      </c>
       <c r="Z54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3962,7 +4093,7 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3986,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
@@ -3998,10 +4129,13 @@
         <v>100</v>
       </c>
       <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4060,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>100</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4074,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4083,13 +4220,13 @@
         <v>1600</v>
       </c>
       <c r="E59" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F59" s="3">
         <v>1500</v>
       </c>
       <c r="G59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H59" s="3">
         <v>1400</v>
@@ -4098,19 +4235,19 @@
         <v>1400</v>
       </c>
       <c r="J59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1200</v>
       </c>
       <c r="O59" s="3">
         <v>1200</v>
@@ -4119,10 +4256,10 @@
         <v>1200</v>
       </c>
       <c r="Q59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R59" s="3">
         <v>1000</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1100</v>
       </c>
       <c r="S59" s="3">
         <v>1100</v>
@@ -4131,10 +4268,10 @@
         <v>1100</v>
       </c>
       <c r="U59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V59" s="3">
         <v>1200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1000</v>
       </c>
       <c r="W59" s="3">
         <v>1000</v>
@@ -4143,13 +4280,16 @@
         <v>1000</v>
       </c>
       <c r="Y59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z59" s="3">
         <v>900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4157,13 +4297,13 @@
         <v>1700</v>
       </c>
       <c r="E60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F60" s="3">
         <v>1600</v>
       </c>
       <c r="G60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H60" s="3">
         <v>1500</v>
@@ -4172,19 +4312,19 @@
         <v>1500</v>
       </c>
       <c r="J60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1300</v>
       </c>
       <c r="L60" s="3">
         <v>1300</v>
       </c>
       <c r="M60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N60" s="3">
         <v>1100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1200</v>
       </c>
       <c r="O60" s="3">
         <v>1200</v>
@@ -4193,37 +4333,40 @@
         <v>1200</v>
       </c>
       <c r="Q60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1300</v>
       </c>
       <c r="W60" s="3">
         <v>1300</v>
       </c>
       <c r="X60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4288,16 +4431,19 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4305,7 +4451,7 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -4314,7 +4460,7 @@
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
@@ -4323,40 +4469,40 @@
         <v>400</v>
       </c>
       <c r="K62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L62" s="3">
         <v>500</v>
       </c>
       <c r="M62" s="3">
+        <v>500</v>
+      </c>
+      <c r="N62" s="3">
         <v>600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>900</v>
       </c>
       <c r="O62" s="3">
         <v>900</v>
       </c>
       <c r="P62" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1000</v>
       </c>
-      <c r="Q62" s="3">
-        <v>100</v>
-      </c>
       <c r="R62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
       <c r="T62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U62" s="3">
         <v>100</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
+      <c r="V62" s="3">
+        <v>100</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
@@ -4364,14 +4510,17 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="3">
         <v>200</v>
       </c>
-      <c r="Z62" s="3" t="s">
+      <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4607,49 +4765,49 @@
         <v>1900</v>
       </c>
       <c r="G66" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H66" s="3">
         <v>1800</v>
       </c>
       <c r="I66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2100</v>
       </c>
       <c r="O66" s="3">
         <v>2100</v>
       </c>
       <c r="P66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1100</v>
       </c>
       <c r="R66" s="3">
         <v>1100</v>
       </c>
       <c r="S66" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T66" s="3">
         <v>1200</v>
       </c>
       <c r="U66" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="V66" s="3">
         <v>1300</v>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4869,10 +5037,10 @@
         <v>400</v>
       </c>
       <c r="K70" s="3">
+        <v>400</v>
+      </c>
+      <c r="L70" s="3">
         <v>300</v>
-      </c>
-      <c r="L70" s="3">
-        <v>600</v>
       </c>
       <c r="M70" s="3">
         <v>600</v>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,64 +5161,67 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-9800</v>
       </c>
       <c r="M72" s="3">
         <v>-9800</v>
       </c>
       <c r="N72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="O72" s="3">
         <v>-9900</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-10000</v>
       </c>
       <c r="P72" s="3">
         <v>-10000</v>
       </c>
       <c r="Q72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="R72" s="3">
         <v>-10100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-10300</v>
       </c>
       <c r="T72" s="3">
         <v>-10300</v>
       </c>
       <c r="U72" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="V72" s="3">
         <v>-10400</v>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3">
         <v>-10400</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-10400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,70 +5469,73 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
-        <v>100</v>
-      </c>
       <c r="J76" s="3">
+        <v>100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1200</v>
       </c>
       <c r="P76" s="3">
         <v>-1200</v>
       </c>
       <c r="Q76" s="3">
-        <v>-1400</v>
+        <v>-1200</v>
       </c>
       <c r="R76" s="3">
         <v>-1400</v>
       </c>
       <c r="S76" s="3">
-        <v>-1600</v>
+        <v>-1400</v>
       </c>
       <c r="T76" s="3">
         <v>-1600</v>
       </c>
       <c r="U76" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="V76" s="3">
         <v>-1800</v>
       </c>
       <c r="W76" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="X76" s="3">
         <v>-1700</v>
@@ -5358,10 +5544,13 @@
         <v>-1700</v>
       </c>
       <c r="Z76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,143 +5623,149 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>300</v>
       </c>
       <c r="H81" s="3">
         <v>300</v>
       </c>
       <c r="I81" s="3">
+        <v>300</v>
+      </c>
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
         <v>0</v>
@@ -5587,8 +5782,11 @@
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,58 +6273,61 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
         <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
         <v>100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6193,8 +6414,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -6205,8 +6426,8 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6437,11 +6667,11 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>200</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,17 +7024,20 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -6799,20 +7045,20 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -6835,11 +7081,11 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,64 +7178,67 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
         <v>100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>FULO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -787,7 +791,7 @@
         <v>1100</v>
       </c>
       <c r="G8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H8" s="3">
         <v>1000</v>
@@ -799,16 +803,16 @@
         <v>1000</v>
       </c>
       <c r="K8" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L8" s="3">
         <v>900</v>
       </c>
       <c r="M8" s="3">
+        <v>900</v>
+      </c>
+      <c r="N8" s="3">
         <v>700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>600</v>
       </c>
       <c r="O8" s="3">
         <v>600</v>
@@ -820,7 +824,7 @@
         <v>600</v>
       </c>
       <c r="R8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S8" s="3">
         <v>500</v>
@@ -832,10 +836,10 @@
         <v>500</v>
       </c>
       <c r="V8" s="3">
+        <v>500</v>
+      </c>
+      <c r="W8" s="3">
         <v>400</v>
-      </c>
-      <c r="W8" s="3">
-        <v>500</v>
       </c>
       <c r="X8" s="3">
         <v>500</v>
@@ -844,13 +848,16 @@
         <v>500</v>
       </c>
       <c r="Z8" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA8" s="3">
         <v>300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -870,7 +877,7 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -906,14 +913,14 @@
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <v>-100</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
       <c r="X9" s="3">
         <v>0</v>
       </c>
@@ -921,13 +928,16 @@
         <v>0</v>
       </c>
       <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
         <v>-100</v>
       </c>
-      <c r="AA9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -941,28 +951,28 @@
         <v>900</v>
       </c>
       <c r="G10" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H10" s="3">
         <v>800</v>
       </c>
       <c r="I10" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J10" s="3">
         <v>900</v>
       </c>
       <c r="K10" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L10" s="3">
         <v>800</v>
       </c>
       <c r="M10" s="3">
+        <v>800</v>
+      </c>
+      <c r="N10" s="3">
         <v>600</v>
-      </c>
-      <c r="N10" s="3">
-        <v>500</v>
       </c>
       <c r="O10" s="3">
         <v>500</v>
@@ -974,7 +984,7 @@
         <v>500</v>
       </c>
       <c r="R10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S10" s="3">
         <v>400</v>
@@ -983,7 +993,7 @@
         <v>400</v>
       </c>
       <c r="U10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V10" s="3">
         <v>500</v>
@@ -998,13 +1008,16 @@
         <v>500</v>
       </c>
       <c r="Z10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AA10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1322,12 +1345,12 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1378,43 +1405,43 @@
         <v>800</v>
       </c>
       <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>700</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
       </c>
       <c r="K17" s="3">
+        <v>700</v>
+      </c>
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>700</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
       </c>
       <c r="N17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O17" s="3">
         <v>600</v>
       </c>
       <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>500</v>
       </c>
       <c r="S17" s="3">
         <v>500</v>
@@ -1423,28 +1450,31 @@
         <v>500</v>
       </c>
       <c r="U17" s="3">
+        <v>500</v>
+      </c>
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
-      </c>
-      <c r="X17" s="3">
-        <v>400</v>
       </c>
       <c r="Y17" s="3">
         <v>400</v>
       </c>
       <c r="Z17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1455,16 +1485,16 @@
         <v>300</v>
       </c>
       <c r="F18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G18" s="3">
         <v>200</v>
       </c>
       <c r="H18" s="3">
+        <v>200</v>
+      </c>
+      <c r="I18" s="3">
         <v>400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>300</v>
       </c>
       <c r="J18" s="3">
         <v>300</v>
@@ -1473,11 +1503,11 @@
         <v>300</v>
       </c>
       <c r="L18" s="3">
+        <v>300</v>
+      </c>
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1485,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -1500,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>100</v>
-      </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3">
         <v>100</v>
@@ -1518,10 +1548,13 @@
         <v>100</v>
       </c>
       <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1585,16 +1619,16 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
@@ -1603,7 +1637,7 @@
         <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1626,38 +1660,41 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>400</v>
       </c>
       <c r="I21" s="3">
         <v>400</v>
       </c>
       <c r="J21" s="3">
+        <v>400</v>
+      </c>
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
@@ -1668,10 +1705,10 @@
         <v>100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>100</v>
@@ -1680,16 +1717,16 @@
         <v>100</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
-        <v>100</v>
-      </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X21" s="3">
         <v>0</v>
@@ -1698,13 +1735,16 @@
         <v>0</v>
       </c>
       <c r="Z21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1762,12 +1802,12 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
@@ -1780,38 +1820,41 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>400</v>
       </c>
       <c r="I23" s="3">
         <v>400</v>
       </c>
       <c r="J23" s="3">
+        <v>400</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
         <v>100</v>
       </c>
@@ -1822,28 +1865,28 @@
         <v>100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>100</v>
-      </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
@@ -1852,13 +1895,16 @@
         <v>0</v>
       </c>
       <c r="Z23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1869,10 +1915,10 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1881,10 +1927,10 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-300</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
@@ -1892,8 +1938,8 @@
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1916,26 +1962,29 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>8</v>
+      <c r="Z24" s="3">
+        <v>0</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2029,20 +2081,20 @@
         <v>200</v>
       </c>
       <c r="H26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I26" s="3">
         <v>300</v>
       </c>
       <c r="J26" s="3">
+        <v>300</v>
+      </c>
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
         <v>100</v>
       </c>
@@ -2053,10 +2105,10 @@
         <v>100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>100</v>
@@ -2065,16 +2117,16 @@
         <v>100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>100</v>
-      </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X26" s="3">
         <v>0</v>
@@ -2083,75 +2135,78 @@
         <v>0</v>
       </c>
       <c r="Z26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>300</v>
       </c>
       <c r="I27" s="3">
         <v>300</v>
       </c>
       <c r="J27" s="3">
+        <v>300</v>
+      </c>
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>100</v>
-      </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X27" s="3">
         <v>0</v>
@@ -2160,13 +2215,16 @@
         <v>0</v>
       </c>
       <c r="Z27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2277,8 +2338,8 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2299,14 +2360,14 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-100</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
@@ -2314,13 +2375,16 @@
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-100</v>
       </c>
-      <c r="AA29" s="3" t="s">
+      <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2509,16 +2579,16 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
@@ -2527,7 +2597,7 @@
         <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2550,67 +2620,70 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>300</v>
       </c>
       <c r="I33" s="3">
         <v>300</v>
       </c>
       <c r="J33" s="3">
+        <v>300</v>
+      </c>
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
         <v>0</v>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,67 +2780,70 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>300</v>
       </c>
       <c r="I35" s="3">
         <v>300</v>
       </c>
       <c r="J35" s="3">
+        <v>300</v>
+      </c>
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
         <v>0</v>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,67 +3007,68 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>800</v>
       </c>
       <c r="M41" s="3">
         <v>800</v>
       </c>
       <c r="N41" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="O41" s="3">
         <v>600</v>
       </c>
       <c r="P41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q41" s="3">
         <v>500</v>
       </c>
       <c r="R41" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="S41" s="3">
         <v>200</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3238,7 +3337,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -3280,10 +3379,10 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3306,58 +3405,61 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
-      </c>
-      <c r="N46" s="3">
-        <v>600</v>
       </c>
       <c r="O46" s="3">
         <v>600</v>
       </c>
       <c r="P46" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q46" s="3">
         <v>500</v>
       </c>
       <c r="R46" s="3">
+        <v>500</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
-      </c>
-      <c r="S46" s="3">
-        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
@@ -3366,25 +3468,28 @@
         <v>200</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3472,7 +3580,7 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
@@ -3481,7 +3589,7 @@
         <v>500</v>
       </c>
       <c r="I48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
@@ -3493,25 +3601,25 @@
         <v>600</v>
       </c>
       <c r="M48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N48" s="3">
         <v>700</v>
       </c>
       <c r="O48" s="3">
+        <v>700</v>
+      </c>
+      <c r="P48" s="3">
         <v>1000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1100</v>
       </c>
       <c r="Q48" s="3">
         <v>1100</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3523,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
@@ -3532,13 +3640,16 @@
         <v>100</v>
       </c>
       <c r="Z48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3780,23 +3900,23 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
       </c>
       <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
@@ -3840,13 +3960,16 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,46 +4045,49 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1600</v>
       </c>
       <c r="P54" s="3">
         <v>1600</v>
@@ -3970,20 +4096,20 @@
         <v>1600</v>
       </c>
       <c r="R54" s="3">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
       </c>
       <c r="T54" s="3">
+        <v>300</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
-        <v>100</v>
-      </c>
       <c r="W54" s="3">
         <v>100</v>
       </c>
@@ -3991,16 +4117,19 @@
         <v>100</v>
       </c>
       <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3">
-        <v>100</v>
-      </c>
       <c r="AA54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4096,7 +4227,7 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -4120,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
@@ -4132,10 +4263,13 @@
         <v>100</v>
       </c>
       <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4197,13 +4331,13 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>100</v>
       </c>
       <c r="Y58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4223,13 +4360,13 @@
         <v>1600</v>
       </c>
       <c r="F59" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G59" s="3">
         <v>1500</v>
       </c>
       <c r="H59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I59" s="3">
         <v>1400</v>
@@ -4238,19 +4375,19 @@
         <v>1400</v>
       </c>
       <c r="K59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1200</v>
       </c>
       <c r="P59" s="3">
         <v>1200</v>
@@ -4259,10 +4396,10 @@
         <v>1200</v>
       </c>
       <c r="R59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S59" s="3">
         <v>1000</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1100</v>
       </c>
       <c r="T59" s="3">
         <v>1100</v>
@@ -4271,10 +4408,10 @@
         <v>1100</v>
       </c>
       <c r="V59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W59" s="3">
         <v>1200</v>
-      </c>
-      <c r="W59" s="3">
-        <v>1000</v>
       </c>
       <c r="X59" s="3">
         <v>1000</v>
@@ -4283,13 +4420,16 @@
         <v>1000</v>
       </c>
       <c r="Z59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA59" s="3">
         <v>900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4300,13 +4440,13 @@
         <v>1700</v>
       </c>
       <c r="F60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G60" s="3">
         <v>1600</v>
       </c>
       <c r="H60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I60" s="3">
         <v>1500</v>
@@ -4315,19 +4455,19 @@
         <v>1500</v>
       </c>
       <c r="K60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L60" s="3">
         <v>1400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1300</v>
       </c>
       <c r="M60" s="3">
         <v>1300</v>
       </c>
       <c r="N60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O60" s="3">
         <v>1100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1200</v>
       </c>
       <c r="P60" s="3">
         <v>1200</v>
@@ -4336,37 +4476,40 @@
         <v>1200</v>
       </c>
       <c r="R60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
-      </c>
-      <c r="W60" s="3">
-        <v>1300</v>
       </c>
       <c r="X60" s="3">
         <v>1300</v>
       </c>
       <c r="Y60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z60" s="3">
         <v>1200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4434,16 +4577,19 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4454,7 +4600,7 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -4463,7 +4609,7 @@
         <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
@@ -4472,40 +4618,40 @@
         <v>400</v>
       </c>
       <c r="L62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M62" s="3">
         <v>500</v>
       </c>
       <c r="N62" s="3">
+        <v>500</v>
+      </c>
+      <c r="O62" s="3">
         <v>600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>900</v>
       </c>
       <c r="P62" s="3">
         <v>900</v>
       </c>
       <c r="Q62" s="3">
+        <v>900</v>
+      </c>
+      <c r="R62" s="3">
         <v>1000</v>
       </c>
-      <c r="R62" s="3">
-        <v>100</v>
-      </c>
       <c r="S62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
       <c r="U62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V62" s="3">
         <v>100</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
+      <c r="W62" s="3">
+        <v>100</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
@@ -4513,14 +4659,17 @@
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA62" s="3">
         <v>200</v>
       </c>
-      <c r="AA62" s="3" t="s">
+      <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4768,49 +4926,49 @@
         <v>1900</v>
       </c>
       <c r="H66" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I66" s="3">
         <v>1800</v>
       </c>
       <c r="J66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2100</v>
       </c>
       <c r="P66" s="3">
         <v>2100</v>
       </c>
       <c r="Q66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R66" s="3">
         <v>2200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1100</v>
       </c>
       <c r="S66" s="3">
         <v>1100</v>
       </c>
       <c r="T66" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="U66" s="3">
         <v>1200</v>
       </c>
       <c r="V66" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="W66" s="3">
         <v>1300</v>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5040,10 +5208,10 @@
         <v>400</v>
       </c>
       <c r="L70" s="3">
+        <v>400</v>
+      </c>
+      <c r="M70" s="3">
         <v>300</v>
-      </c>
-      <c r="M70" s="3">
-        <v>600</v>
       </c>
       <c r="N70" s="3">
         <v>600</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,67 +5335,70 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-9800</v>
       </c>
       <c r="N72" s="3">
         <v>-9800</v>
       </c>
       <c r="O72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="P72" s="3">
         <v>-9900</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-10000</v>
       </c>
       <c r="Q72" s="3">
         <v>-10000</v>
       </c>
       <c r="R72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="S72" s="3">
         <v>-10100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-10300</v>
       </c>
       <c r="U72" s="3">
         <v>-10300</v>
       </c>
       <c r="V72" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="W72" s="3">
         <v>-10400</v>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3">
         <v>-10400</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-10400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,73 +5655,76 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
-        <v>100</v>
-      </c>
       <c r="K76" s="3">
+        <v>100</v>
+      </c>
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q76" s="3">
         <v>-1200</v>
       </c>
       <c r="R76" s="3">
-        <v>-1400</v>
+        <v>-1200</v>
       </c>
       <c r="S76" s="3">
         <v>-1400</v>
       </c>
       <c r="T76" s="3">
-        <v>-1600</v>
+        <v>-1400</v>
       </c>
       <c r="U76" s="3">
         <v>-1600</v>
       </c>
       <c r="V76" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="W76" s="3">
         <v>-1800</v>
       </c>
       <c r="X76" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="Y76" s="3">
         <v>-1700</v>
@@ -5547,10 +5733,13 @@
         <v>-1700</v>
       </c>
       <c r="AA76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,149 +5815,155 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>300</v>
       </c>
       <c r="I81" s="3">
         <v>300</v>
       </c>
       <c r="J81" s="3">
+        <v>300</v>
+      </c>
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
         <v>0</v>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,52 +6502,52 @@
         <v>200</v>
       </c>
       <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
         <v>100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
       <c r="S89" s="3">
         <v>100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6417,8 +6638,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -6429,8 +6650,8 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6670,11 +6900,11 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>200</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,13 +6952,14 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,20 +7270,23 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -7048,20 +7294,20 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -7084,11 +7330,11 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,67 +7430,70 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
         <v>100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>FULO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,134 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="3">
         <v>1100</v>
@@ -794,10 +801,10 @@
         <v>1100</v>
       </c>
       <c r="H8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J8" s="3">
         <v>1000</v>
@@ -806,19 +813,19 @@
         <v>1000</v>
       </c>
       <c r="L8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>600</v>
       </c>
       <c r="Q8" s="3">
         <v>600</v>
@@ -827,10 +834,10 @@
         <v>600</v>
       </c>
       <c r="S8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U8" s="3">
         <v>500</v>
@@ -839,25 +846,31 @@
         <v>500</v>
       </c>
       <c r="W8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X8" s="3">
         <v>500</v>
       </c>
       <c r="Y8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Z8" s="3">
         <v>500</v>
       </c>
       <c r="AA8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AB8" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -880,10 +893,10 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -916,36 +929,42 @@
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
         <v>-100</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
       <c r="Z9" s="3">
         <v>0</v>
       </c>
       <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
         <v>-100</v>
       </c>
-      <c r="AB9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F10" s="3">
         <v>900</v>
@@ -954,31 +973,31 @@
         <v>900</v>
       </c>
       <c r="H10" s="3">
+        <v>900</v>
+      </c>
+      <c r="I10" s="3">
+        <v>900</v>
+      </c>
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
-      </c>
-      <c r="O10" s="3">
-        <v>500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>500</v>
       </c>
       <c r="Q10" s="3">
         <v>500</v>
@@ -987,19 +1006,19 @@
         <v>500</v>
       </c>
       <c r="S10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U10" s="3">
         <v>400</v>
       </c>
       <c r="V10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="X10" s="3">
         <v>500</v>
@@ -1011,13 +1030,19 @@
         <v>500</v>
       </c>
       <c r="AA10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC10" s="3">
         <v>400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1348,15 +1393,15 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
       <c r="Z15" s="3">
         <v>0</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,52 +1444,54 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
       </c>
       <c r="G17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
+        <v>900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>800</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q17" s="3">
         <v>600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>500</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
@@ -1447,84 +1500,90 @@
         <v>500</v>
       </c>
       <c r="T17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U17" s="3">
         <v>500</v>
       </c>
       <c r="V17" s="3">
+        <v>500</v>
+      </c>
+      <c r="W17" s="3">
+        <v>500</v>
+      </c>
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
         <v>300</v>
       </c>
       <c r="G18" s="3">
+        <v>300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>300</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>300</v>
       </c>
       <c r="L18" s="3">
         <v>300</v>
       </c>
       <c r="M18" s="3">
+        <v>300</v>
+      </c>
+      <c r="N18" s="3">
+        <v>300</v>
+      </c>
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
@@ -1533,28 +1592,34 @@
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>100</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
         <v>100</v>
       </c>
       <c r="Z18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="3">
         <v>100</v>
       </c>
       <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,16 +1648,18 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1622,28 +1689,28 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1663,13 +1730,19 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
         <v>200</v>
@@ -1684,23 +1757,23 @@
         <v>300</v>
       </c>
       <c r="I21" s="3">
+        <v>200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>300</v>
+      </c>
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
         <v>100</v>
       </c>
@@ -1708,43 +1781,49 @@
         <v>100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
         <v>100</v>
       </c>
       <c r="S21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>100</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V21" s="3">
+        <v>100</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
-        <v>100</v>
-      </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z21" s="3">
         <v>0</v>
       </c>
       <c r="AA21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1805,15 +1884,15 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
@@ -1823,13 +1902,19 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
         <v>200</v>
@@ -1844,23 +1929,23 @@
         <v>300</v>
       </c>
       <c r="I23" s="3">
+        <v>200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>300</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
         <v>100</v>
       </c>
@@ -1868,7 +1953,7 @@
         <v>100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
         <v>100</v>
@@ -1883,28 +1968,34 @@
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>100</v>
-      </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z23" s="3">
         <v>0</v>
       </c>
       <c r="AA23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1912,40 +2003,40 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>-300</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1965,26 +2056,32 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-      <c r="AA24" s="3" t="s">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB24" s="3" t="s">
+      <c r="AD24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,16 +2160,22 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
@@ -2084,22 +2187,22 @@
         <v>200</v>
       </c>
       <c r="I26" s="3">
+        <v>200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>200</v>
+      </c>
+      <c r="K26" s="3">
         <v>300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>600</v>
       </c>
       <c r="L26" s="3">
         <v>300</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
@@ -2108,48 +2211,54 @@
         <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
         <v>100</v>
       </c>
       <c r="S26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>100</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
       <c r="AA26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
@@ -2164,31 +2273,31 @@
         <v>200</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>200</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>600</v>
       </c>
       <c r="L27" s="3">
         <v>300</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O27" s="3">
         <v>100</v>
       </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
         <v>100</v>
@@ -2203,28 +2312,34 @@
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>100</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z27" s="3">
         <v>0</v>
       </c>
       <c r="AA27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,31 +2418,37 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2341,11 +2462,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2363,28 +2484,34 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>-100</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>-100</v>
       </c>
-      <c r="AB29" s="3" t="s">
+      <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,16 +2676,22 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2582,28 +2721,28 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2623,13 +2762,19 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
@@ -2644,31 +2789,31 @@
         <v>200</v>
       </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>200</v>
+      </c>
+      <c r="K33" s="3">
         <v>300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>600</v>
       </c>
       <c r="L33" s="3">
         <v>300</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
       </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
         <v>100</v>
@@ -2689,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y33" s="3">
         <v>0</v>
@@ -2703,8 +2848,14 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,13 +2934,19 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
@@ -2804,31 +2961,31 @@
         <v>200</v>
       </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>200</v>
+      </c>
+      <c r="K35" s="3">
         <v>300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>600</v>
       </c>
       <c r="L35" s="3">
         <v>300</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
       </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
         <v>100</v>
@@ -2849,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y35" s="3">
         <v>0</v>
@@ -2863,93 +3020,105 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,73 +3179,75 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F41" s="3">
         <v>2700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
@@ -3088,8 +3261,14 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,22 +3519,28 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3382,13 +3579,13 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3408,73 +3605,79 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
-        <v>2700</v>
-      </c>
       <c r="F46" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="G46" s="3">
         <v>2700</v>
       </c>
       <c r="H46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J46" s="3">
         <v>2500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
-      </c>
-      <c r="T46" s="3">
-        <v>200</v>
-      </c>
-      <c r="U46" s="3">
-        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
       <c r="W46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y46" s="3">
         <v>0</v>
@@ -3486,10 +3689,16 @@
         <v>0</v>
       </c>
       <c r="AB46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,13 +3777,19 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
@@ -3583,19 +3798,19 @@
         <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
       </c>
       <c r="J48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L48" s="3">
         <v>600</v>
@@ -3604,28 +3819,28 @@
         <v>600</v>
       </c>
       <c r="N48" s="3">
+        <v>600</v>
+      </c>
+      <c r="O48" s="3">
+        <v>600</v>
+      </c>
+      <c r="P48" s="3">
         <v>700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1100</v>
       </c>
-      <c r="S48" s="3">
-        <v>100</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3634,22 +3849,28 @@
         <v>0</v>
       </c>
       <c r="X48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="3">
         <v>100</v>
       </c>
       <c r="AA48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3903,26 +4142,26 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
@@ -3963,13 +4202,19 @@
         <v>0</v>
       </c>
       <c r="AA52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G54" s="3">
         <v>3100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1300</v>
       </c>
       <c r="P54" s="3">
         <v>1600</v>
       </c>
       <c r="Q54" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="R54" s="3">
         <v>1600</v>
       </c>
       <c r="S54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U54" s="3">
         <v>300</v>
-      </c>
-      <c r="T54" s="3">
-        <v>300</v>
-      </c>
-      <c r="U54" s="3">
-        <v>200</v>
       </c>
       <c r="V54" s="3">
         <v>300</v>
       </c>
       <c r="W54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y54" s="3">
         <v>100</v>
       </c>
       <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
-      <c r="AA54" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,16 +4447,18 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -4230,10 +4491,10 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -4254,10 +4515,10 @@
         <v>0</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
@@ -4266,10 +4527,16 @@
         <v>100</v>
       </c>
       <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4334,27 +4601,33 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E59" s="3">
         <v>1600</v>
@@ -4363,73 +4636,79 @@
         <v>1600</v>
       </c>
       <c r="G59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1400</v>
       </c>
       <c r="K59" s="3">
         <v>1400</v>
       </c>
       <c r="L59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M59" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N59" s="3">
         <v>1300</v>
       </c>
       <c r="O59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1200</v>
       </c>
       <c r="R59" s="3">
         <v>1200</v>
       </c>
       <c r="S59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U59" s="3">
         <v>1000</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1100</v>
       </c>
       <c r="V59" s="3">
         <v>1100</v>
       </c>
       <c r="W59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1200</v>
-      </c>
-      <c r="X59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>1000</v>
       </c>
       <c r="Z59" s="3">
         <v>1000</v>
       </c>
       <c r="AA59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB59" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>900</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4437,55 +4716,55 @@
         <v>1700</v>
       </c>
       <c r="E60" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F60" s="3">
         <v>1700</v>
       </c>
       <c r="G60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1500</v>
       </c>
       <c r="K60" s="3">
         <v>1500</v>
       </c>
       <c r="L60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1200</v>
       </c>
       <c r="R60" s="3">
         <v>1200</v>
       </c>
       <c r="S60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U60" s="3">
         <v>1000</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1200</v>
       </c>
       <c r="V60" s="3">
         <v>1100</v>
@@ -4494,22 +4773,28 @@
         <v>1200</v>
       </c>
       <c r="X60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1300</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>1000</v>
       </c>
       <c r="AB60" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4580,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
@@ -4588,88 +4873,100 @@
       <c r="AB61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
       </c>
       <c r="J62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>400</v>
       </c>
       <c r="M62" s="3">
+        <v>400</v>
+      </c>
+      <c r="N62" s="3">
+        <v>400</v>
+      </c>
+      <c r="O62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1000</v>
       </c>
-      <c r="S62" s="3">
-        <v>100</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
       <c r="U62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W62" s="3">
-        <v>100</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>100</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA62" s="3">
-        <v>200</v>
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,16 +5217,22 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E66" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F66" s="3">
         <v>1900</v>
@@ -4929,19 +5244,19 @@
         <v>1900</v>
       </c>
       <c r="I66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1900</v>
       </c>
       <c r="L66" s="3">
         <v>1800</v>
       </c>
       <c r="M66" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="N66" s="3">
         <v>1800</v>
@@ -4950,31 +5265,31 @@
         <v>1700</v>
       </c>
       <c r="P66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R66" s="3">
         <v>2100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1200</v>
-      </c>
-      <c r="W66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="X66" s="3">
-        <v>1300</v>
       </c>
       <c r="Y66" s="3">
         <v>1300</v>
@@ -4988,8 +5303,14 @@
       <c r="AB66" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5211,13 +5546,13 @@
         <v>400</v>
       </c>
       <c r="M70" s="3">
+        <v>400</v>
+      </c>
+      <c r="N70" s="3">
+        <v>400</v>
+      </c>
+      <c r="O70" s="3">
         <v>300</v>
-      </c>
-      <c r="N70" s="3">
-        <v>600</v>
-      </c>
-      <c r="O70" s="3">
-        <v>600</v>
       </c>
       <c r="P70" s="3">
         <v>600</v>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,73 +5679,79 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-8200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-9300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-9600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-9800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-9800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-10000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-10000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-10100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-10200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-10300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-10300</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-10400</v>
       </c>
       <c r="Y72" s="3">
         <v>-10400</v>
@@ -5418,8 +5765,14 @@
       <c r="AB72" s="3">
         <v>-10400</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>-10400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G76" s="3">
         <v>900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="K76" s="3">
-        <v>100</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
+        <v>100</v>
+      </c>
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-1800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-1700</v>
       </c>
       <c r="AA76" s="3">
         <v>-1700</v>
       </c>
       <c r="AB76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,98 +6195,110 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
@@ -5924,31 +6313,31 @@
         <v>200</v>
       </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>200</v>
+      </c>
+      <c r="K81" s="3">
         <v>300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>600</v>
       </c>
       <c r="L81" s="3">
         <v>300</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
       </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
         <v>100</v>
@@ -5969,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="3">
         <v>0</v>
@@ -5983,8 +6372,14 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,19 +6920,25 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>400</v>
       </c>
       <c r="G89" s="3">
         <v>200</v>
@@ -6514,46 +6947,46 @@
         <v>400</v>
       </c>
       <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>400</v>
+      </c>
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -6573,8 +7006,14 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6641,11 +7082,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
@@ -6653,11 +7094,11 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6903,14 +7362,14 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>200</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6962,10 +7429,10 @@
         <v>-100</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7282,38 +7773,38 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -7333,14 +7824,14 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
@@ -7353,8 +7844,14 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7442,55 +7945,55 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>400</v>
-      </c>
-      <c r="I102" s="3">
-        <v>300</v>
       </c>
       <c r="J102" s="3">
         <v>400</v>
       </c>
       <c r="K102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L102" s="3">
         <v>400</v>
       </c>
       <c r="M102" s="3">
+        <v>200</v>
+      </c>
+      <c r="N102" s="3">
+        <v>400</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>100</v>
@@ -7499,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
         <v>0</v>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>FULO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,141 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E8" s="3">
         <v>1000</v>
       </c>
       <c r="F8" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G8" s="3">
         <v>1100</v>
@@ -807,7 +811,7 @@
         <v>1100</v>
       </c>
       <c r="J8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K8" s="3">
         <v>1000</v>
@@ -819,16 +823,16 @@
         <v>1000</v>
       </c>
       <c r="N8" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="O8" s="3">
         <v>900</v>
       </c>
       <c r="P8" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q8" s="3">
         <v>700</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>600</v>
       </c>
       <c r="R8" s="3">
         <v>600</v>
@@ -840,7 +844,7 @@
         <v>600</v>
       </c>
       <c r="U8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V8" s="3">
         <v>500</v>
@@ -852,10 +856,10 @@
         <v>500</v>
       </c>
       <c r="Y8" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z8" s="3">
         <v>400</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>500</v>
       </c>
       <c r="AA8" s="3">
         <v>500</v>
@@ -864,18 +868,21 @@
         <v>500</v>
       </c>
       <c r="AC8" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD8" s="3">
         <v>300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -899,7 +906,7 @@
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
@@ -935,14 +942,14 @@
         <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
         <v>-100</v>
       </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
       <c r="AA9" s="3">
         <v>0</v>
       </c>
@@ -950,13 +957,16 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
         <v>-100</v>
       </c>
-      <c r="AD9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -967,7 +977,7 @@
         <v>800</v>
       </c>
       <c r="F10" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G10" s="3">
         <v>900</v>
@@ -979,28 +989,28 @@
         <v>900</v>
       </c>
       <c r="J10" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K10" s="3">
         <v>800</v>
       </c>
       <c r="L10" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M10" s="3">
         <v>900</v>
       </c>
       <c r="N10" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O10" s="3">
         <v>800</v>
       </c>
       <c r="P10" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q10" s="3">
         <v>600</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>500</v>
       </c>
       <c r="R10" s="3">
         <v>500</v>
@@ -1012,7 +1022,7 @@
         <v>500</v>
       </c>
       <c r="U10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V10" s="3">
         <v>400</v>
@@ -1021,7 +1031,7 @@
         <v>400</v>
       </c>
       <c r="X10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Y10" s="3">
         <v>500</v>
@@ -1036,13 +1046,16 @@
         <v>500</v>
       </c>
       <c r="AC10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AD10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1399,12 +1422,12 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1458,7 +1485,7 @@
         <v>900</v>
       </c>
       <c r="F17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G17" s="3">
         <v>800</v>
@@ -1467,43 +1494,43 @@
         <v>800</v>
       </c>
       <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>700</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
       </c>
       <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
       </c>
       <c r="Q17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
       </c>
       <c r="S17" s="3">
+        <v>600</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
-      </c>
-      <c r="U17" s="3">
-        <v>500</v>
       </c>
       <c r="V17" s="3">
         <v>500</v>
@@ -1512,39 +1539,42 @@
         <v>500</v>
       </c>
       <c r="X17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>400</v>
       </c>
       <c r="AB17" s="3">
         <v>400</v>
       </c>
       <c r="AC17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD17" s="3">
         <v>200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>300</v>
@@ -1553,16 +1583,16 @@
         <v>300</v>
       </c>
       <c r="I18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J18" s="3">
         <v>200</v>
       </c>
       <c r="K18" s="3">
+        <v>200</v>
+      </c>
+      <c r="L18" s="3">
         <v>400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>300</v>
       </c>
       <c r="M18" s="3">
         <v>300</v>
@@ -1571,11 +1601,11 @@
         <v>300</v>
       </c>
       <c r="O18" s="3">
+        <v>300</v>
+      </c>
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1583,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
@@ -1598,16 +1628,16 @@
         <v>0</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
-        <v>100</v>
-      </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="3">
         <v>100</v>
@@ -1616,10 +1646,13 @@
         <v>100</v>
       </c>
       <c r="AD18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,19 +1683,20 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1695,16 +1729,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
@@ -1713,7 +1747,7 @@
         <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1736,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1748,35 +1785,35 @@
         <v>200</v>
       </c>
       <c r="F21" s="3">
+        <v>200</v>
+      </c>
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>400</v>
       </c>
       <c r="L21" s="3">
         <v>400</v>
       </c>
       <c r="M21" s="3">
+        <v>400</v>
+      </c>
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
         <v>100</v>
       </c>
@@ -1787,10 +1824,10 @@
         <v>100</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
         <v>100</v>
@@ -1799,16 +1836,16 @@
         <v>100</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
-        <v>100</v>
-      </c>
       <c r="Z21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA21" s="3">
         <v>0</v>
@@ -1817,13 +1854,16 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1890,12 +1930,12 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
@@ -1908,8 +1948,11 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1920,35 +1963,35 @@
         <v>200</v>
       </c>
       <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>400</v>
       </c>
       <c r="L23" s="3">
         <v>400</v>
       </c>
       <c r="M23" s="3">
+        <v>400</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
@@ -1959,28 +2002,28 @@
         <v>100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
-        <v>100</v>
-      </c>
       <c r="Z23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
@@ -1989,13 +2032,16 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2003,10 +2049,10 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -2015,10 +2061,10 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -2027,10 +2073,10 @@
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>-300</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>8</v>
@@ -2038,8 +2084,8 @@
       <c r="P24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -2062,26 +2108,29 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-      <c r="Y24" s="3" t="s">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>8</v>
+      <c r="AC24" s="3">
+        <v>0</v>
       </c>
       <c r="AD24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,19 +2215,22 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
         <v>200</v>
@@ -2193,20 +2245,20 @@
         <v>200</v>
       </c>
       <c r="K26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L26" s="3">
         <v>300</v>
       </c>
       <c r="M26" s="3">
+        <v>300</v>
+      </c>
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
@@ -2217,10 +2269,10 @@
         <v>100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>100</v>
@@ -2229,16 +2281,16 @@
         <v>100</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
-        <v>100</v>
-      </c>
       <c r="Z26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA26" s="3">
         <v>0</v>
@@ -2247,13 +2299,16 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2264,67 +2319,67 @@
         <v>100</v>
       </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>300</v>
       </c>
       <c r="L27" s="3">
         <v>300</v>
       </c>
       <c r="M27" s="3">
+        <v>300</v>
+      </c>
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
-        <v>100</v>
-      </c>
       <c r="Z27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA27" s="3">
         <v>0</v>
@@ -2333,13 +2388,16 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2450,8 +2511,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2468,8 +2529,8 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2490,14 +2551,14 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-100</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
@@ -2505,13 +2566,16 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
         <v>-100</v>
       </c>
-      <c r="AD29" s="3" t="s">
+      <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,19 +2749,22 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2727,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
@@ -2745,7 +2815,7 @@
         <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2768,8 +2838,11 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2780,64 +2853,64 @@
         <v>100</v>
       </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>300</v>
       </c>
       <c r="L33" s="3">
         <v>300</v>
       </c>
       <c r="M33" s="3">
+        <v>300</v>
+      </c>
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z33" s="3">
         <v>0</v>
@@ -2854,8 +2927,11 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3016,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2952,64 +3031,64 @@
         <v>100</v>
       </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>300</v>
       </c>
       <c r="L35" s="3">
         <v>300</v>
       </c>
       <c r="M35" s="3">
+        <v>300</v>
+      </c>
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z35" s="3">
         <v>0</v>
@@ -3026,99 +3105,105 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,76 +3267,77 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>800</v>
       </c>
       <c r="P41" s="3">
         <v>800</v>
       </c>
       <c r="Q41" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="R41" s="3">
         <v>600</v>
       </c>
       <c r="S41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T41" s="3">
         <v>500</v>
       </c>
       <c r="U41" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3537,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -3585,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3611,67 +3710,70 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2900</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2800</v>
       </c>
       <c r="F46" s="3">
         <v>2800</v>
       </c>
       <c r="G46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H46" s="3">
         <v>2700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>600</v>
       </c>
       <c r="R46" s="3">
         <v>600</v>
       </c>
       <c r="S46" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T46" s="3">
         <v>500</v>
       </c>
       <c r="U46" s="3">
+        <v>500</v>
+      </c>
+      <c r="V46" s="3">
         <v>300</v>
-      </c>
-      <c r="V46" s="3">
-        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>200</v>
@@ -3680,25 +3782,28 @@
         <v>200</v>
       </c>
       <c r="Y46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3792,7 +3900,7 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
@@ -3804,7 +3912,7 @@
         <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
@@ -3813,7 +3921,7 @@
         <v>500</v>
       </c>
       <c r="L48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
@@ -3825,25 +3933,25 @@
         <v>600</v>
       </c>
       <c r="P48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q48" s="3">
         <v>700</v>
       </c>
       <c r="R48" s="3">
+        <v>700</v>
+      </c>
+      <c r="S48" s="3">
         <v>1000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1100</v>
       </c>
       <c r="T48" s="3">
         <v>1100</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3855,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="3">
         <v>100</v>
@@ -3864,13 +3972,16 @@
         <v>100</v>
       </c>
       <c r="AC48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4148,23 +4268,23 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
       <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
@@ -4208,13 +4328,16 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,55 +4422,58 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3300</v>
-      </c>
-      <c r="E54" s="3">
-        <v>3200</v>
       </c>
       <c r="F54" s="3">
         <v>3200</v>
       </c>
       <c r="G54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H54" s="3">
         <v>3100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1600</v>
       </c>
       <c r="S54" s="3">
         <v>1600</v>
@@ -4356,20 +4482,20 @@
         <v>1600</v>
       </c>
       <c r="U54" s="3">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="V54" s="3">
         <v>300</v>
       </c>
       <c r="W54" s="3">
+        <v>300</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>300</v>
       </c>
-      <c r="Y54" s="3">
-        <v>100</v>
-      </c>
       <c r="Z54" s="3">
         <v>100</v>
       </c>
@@ -4377,16 +4503,19 @@
         <v>100</v>
       </c>
       <c r="AB54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC54" s="3">
         <v>200</v>
       </c>
-      <c r="AC54" s="3">
-        <v>100</v>
-      </c>
       <c r="AD54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4461,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -4497,7 +4628,7 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -4521,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="3">
         <v>100</v>
@@ -4533,10 +4664,13 @@
         <v>100</v>
       </c>
       <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4607,13 +4741,13 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="3">
         <v>100</v>
       </c>
       <c r="AB58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC58" s="3">
         <v>0</v>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4630,7 +4767,7 @@
         <v>1700</v>
       </c>
       <c r="E59" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F59" s="3">
         <v>1600</v>
@@ -4642,13 +4779,13 @@
         <v>1600</v>
       </c>
       <c r="I59" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J59" s="3">
         <v>1500</v>
       </c>
       <c r="K59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L59" s="3">
         <v>1400</v>
@@ -4657,19 +4794,19 @@
         <v>1400</v>
       </c>
       <c r="N59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1200</v>
       </c>
       <c r="S59" s="3">
         <v>1200</v>
@@ -4678,10 +4815,10 @@
         <v>1200</v>
       </c>
       <c r="U59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V59" s="3">
         <v>1000</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1100</v>
       </c>
       <c r="W59" s="3">
         <v>1100</v>
@@ -4690,10 +4827,10 @@
         <v>1100</v>
       </c>
       <c r="Y59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1200</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>1000</v>
       </c>
       <c r="AA59" s="3">
         <v>1000</v>
@@ -4702,13 +4839,16 @@
         <v>1000</v>
       </c>
       <c r="AC59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD59" s="3">
         <v>900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4716,10 +4856,10 @@
         <v>1700</v>
       </c>
       <c r="E60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="3">
         <v>1600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1700</v>
       </c>
       <c r="G60" s="3">
         <v>1700</v>
@@ -4728,13 +4868,13 @@
         <v>1700</v>
       </c>
       <c r="I60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J60" s="3">
         <v>1600</v>
       </c>
       <c r="K60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L60" s="3">
         <v>1500</v>
@@ -4743,19 +4883,19 @@
         <v>1500</v>
       </c>
       <c r="N60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O60" s="3">
         <v>1400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1300</v>
       </c>
       <c r="P60" s="3">
         <v>1300</v>
       </c>
       <c r="Q60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R60" s="3">
         <v>1100</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1200</v>
       </c>
       <c r="S60" s="3">
         <v>1200</v>
@@ -4764,37 +4904,40 @@
         <v>1200</v>
       </c>
       <c r="U60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1200</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>1300</v>
       </c>
       <c r="AA60" s="3">
         <v>1300</v>
       </c>
       <c r="AB60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AC60" s="3">
         <v>1200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4871,16 +5014,19 @@
         <v>0</v>
       </c>
       <c r="AB61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4891,7 +5037,7 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -4900,7 +5046,7 @@
         <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -4909,7 +5055,7 @@
         <v>300</v>
       </c>
       <c r="L62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>400</v>
@@ -4918,40 +5064,40 @@
         <v>400</v>
       </c>
       <c r="O62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P62" s="3">
         <v>500</v>
       </c>
       <c r="Q62" s="3">
+        <v>500</v>
+      </c>
+      <c r="R62" s="3">
         <v>600</v>
-      </c>
-      <c r="R62" s="3">
-        <v>900</v>
       </c>
       <c r="S62" s="3">
         <v>900</v>
       </c>
       <c r="T62" s="3">
+        <v>900</v>
+      </c>
+      <c r="U62" s="3">
         <v>1000</v>
       </c>
-      <c r="U62" s="3">
-        <v>100</v>
-      </c>
       <c r="V62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
       <c r="X62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="3">
         <v>100</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>8</v>
+      <c r="Z62" s="3">
+        <v>100</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>8</v>
@@ -4959,14 +5105,17 @@
       <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD62" s="3">
         <v>200</v>
       </c>
-      <c r="AD62" s="3" t="s">
+      <c r="AE62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5235,7 +5393,7 @@
         <v>1800</v>
       </c>
       <c r="F66" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G66" s="3">
         <v>1900</v>
@@ -5250,49 +5408,49 @@
         <v>1900</v>
       </c>
       <c r="K66" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="L66" s="3">
         <v>1800</v>
       </c>
       <c r="M66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
-      </c>
-      <c r="R66" s="3">
-        <v>2100</v>
       </c>
       <c r="S66" s="3">
         <v>2100</v>
       </c>
       <c r="T66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U66" s="3">
         <v>2200</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1100</v>
       </c>
       <c r="V66" s="3">
         <v>1100</v>
       </c>
       <c r="W66" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="X66" s="3">
         <v>1200</v>
       </c>
       <c r="Y66" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="Z66" s="3">
         <v>1300</v>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5552,10 +5720,10 @@
         <v>400</v>
       </c>
       <c r="O70" s="3">
+        <v>400</v>
+      </c>
+      <c r="P70" s="3">
         <v>300</v>
-      </c>
-      <c r="P70" s="3">
-        <v>600</v>
       </c>
       <c r="Q70" s="3">
         <v>600</v>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,76 +5856,79 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-8100</v>
       </c>
       <c r="F72" s="3">
         <v>-8100</v>
       </c>
       <c r="G72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="H72" s="3">
         <v>-8200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9600</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-9800</v>
       </c>
       <c r="Q72" s="3">
         <v>-9800</v>
       </c>
       <c r="R72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="S72" s="3">
         <v>-9900</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-10000</v>
       </c>
       <c r="T72" s="3">
         <v>-10000</v>
       </c>
       <c r="U72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="V72" s="3">
         <v>-10100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-10300</v>
       </c>
       <c r="X72" s="3">
         <v>-10300</v>
       </c>
       <c r="Y72" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="Z72" s="3">
         <v>-10400</v>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3">
         <v>-10400</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>-10400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,82 +6212,85 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1100</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1000</v>
       </c>
       <c r="F76" s="3">
         <v>1000</v>
       </c>
       <c r="G76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
-        <v>100</v>
-      </c>
       <c r="N76" s="3">
+        <v>100</v>
+      </c>
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-1200</v>
       </c>
       <c r="T76" s="3">
         <v>-1200</v>
       </c>
       <c r="U76" s="3">
-        <v>-1400</v>
+        <v>-1200</v>
       </c>
       <c r="V76" s="3">
         <v>-1400</v>
       </c>
       <c r="W76" s="3">
-        <v>-1600</v>
+        <v>-1400</v>
       </c>
       <c r="X76" s="3">
         <v>-1600</v>
       </c>
       <c r="Y76" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="Z76" s="3">
         <v>-1800</v>
       </c>
       <c r="AA76" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="AB76" s="3">
         <v>-1700</v>
@@ -6113,10 +6299,13 @@
         <v>-1700</v>
       </c>
       <c r="AD76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AE76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,99 +6390,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6304,64 +6499,64 @@
         <v>100</v>
       </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>300</v>
       </c>
       <c r="L81" s="3">
         <v>300</v>
       </c>
       <c r="M81" s="3">
+        <v>300</v>
+      </c>
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z81" s="3">
         <v>0</v>
@@ -6378,8 +6573,11 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,70 +7140,73 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>200</v>
       </c>
       <c r="H89" s="3">
+        <v>200</v>
+      </c>
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
         <v>100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
       <c r="V89" s="3">
         <v>100</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7088,8 +7309,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
@@ -7100,8 +7321,8 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7368,11 +7598,11 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>200</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7435,7 +7669,7 @@
         <v>-100</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7773,20 +8019,20 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -7794,20 +8040,20 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -7830,11 +8076,11 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7945,67 +8197,67 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
         <v>100</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
         <v>0</v>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FULO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>FULO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,148 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1000</v>
       </c>
       <c r="F8" s="3">
         <v>1000</v>
       </c>
       <c r="G8" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="3">
         <v>1100</v>
@@ -814,7 +818,7 @@
         <v>1100</v>
       </c>
       <c r="K8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L8" s="3">
         <v>1000</v>
@@ -826,16 +830,16 @@
         <v>1000</v>
       </c>
       <c r="O8" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="P8" s="3">
         <v>900</v>
       </c>
       <c r="Q8" s="3">
+        <v>900</v>
+      </c>
+      <c r="R8" s="3">
         <v>700</v>
-      </c>
-      <c r="R8" s="3">
-        <v>600</v>
       </c>
       <c r="S8" s="3">
         <v>600</v>
@@ -847,7 +851,7 @@
         <v>600</v>
       </c>
       <c r="V8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W8" s="3">
         <v>500</v>
@@ -859,10 +863,10 @@
         <v>500</v>
       </c>
       <c r="Z8" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA8" s="3">
         <v>400</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>500</v>
       </c>
       <c r="AB8" s="3">
         <v>500</v>
@@ -871,13 +875,16 @@
         <v>500</v>
       </c>
       <c r="AD8" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE8" s="3">
         <v>300</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -885,7 +892,7 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
@@ -909,7 +916,7 @@
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
@@ -945,14 +952,14 @@
         <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
         <v>-100</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
       <c r="AB9" s="3">
         <v>0</v>
       </c>
@@ -960,18 +967,21 @@
         <v>0</v>
       </c>
       <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
         <v>-100</v>
       </c>
-      <c r="AE9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E10" s="3">
         <v>800</v>
@@ -980,7 +990,7 @@
         <v>800</v>
       </c>
       <c r="G10" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H10" s="3">
         <v>900</v>
@@ -992,28 +1002,28 @@
         <v>900</v>
       </c>
       <c r="K10" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L10" s="3">
         <v>800</v>
       </c>
       <c r="M10" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N10" s="3">
         <v>900</v>
       </c>
       <c r="O10" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="P10" s="3">
         <v>800</v>
       </c>
       <c r="Q10" s="3">
+        <v>800</v>
+      </c>
+      <c r="R10" s="3">
         <v>600</v>
-      </c>
-      <c r="R10" s="3">
-        <v>500</v>
       </c>
       <c r="S10" s="3">
         <v>500</v>
@@ -1025,7 +1035,7 @@
         <v>500</v>
       </c>
       <c r="V10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W10" s="3">
         <v>400</v>
@@ -1034,7 +1044,7 @@
         <v>400</v>
       </c>
       <c r="Y10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Z10" s="3">
         <v>500</v>
@@ -1049,13 +1059,16 @@
         <v>500</v>
       </c>
       <c r="AD10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1425,12 +1448,12 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
       <c r="AB15" s="3">
         <v>0</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1488,7 +1515,7 @@
         <v>900</v>
       </c>
       <c r="G17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
@@ -1497,43 +1524,43 @@
         <v>800</v>
       </c>
       <c r="J17" s="3">
+        <v>800</v>
+      </c>
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>700</v>
       </c>
       <c r="N17" s="3">
         <v>700</v>
       </c>
       <c r="O17" s="3">
+        <v>700</v>
+      </c>
+      <c r="P17" s="3">
         <v>600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>700</v>
       </c>
       <c r="Q17" s="3">
         <v>700</v>
       </c>
       <c r="R17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="S17" s="3">
         <v>600</v>
       </c>
       <c r="T17" s="3">
+        <v>600</v>
+      </c>
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
-      </c>
-      <c r="V17" s="3">
-        <v>500</v>
       </c>
       <c r="W17" s="3">
         <v>500</v>
@@ -1542,42 +1569,45 @@
         <v>500</v>
       </c>
       <c r="Y17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>400</v>
       </c>
       <c r="AC17" s="3">
         <v>400</v>
       </c>
       <c r="AD17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE17" s="3">
         <v>200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
         <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>300</v>
@@ -1586,16 +1616,16 @@
         <v>300</v>
       </c>
       <c r="J18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K18" s="3">
         <v>200</v>
       </c>
       <c r="L18" s="3">
+        <v>200</v>
+      </c>
+      <c r="M18" s="3">
         <v>400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>300</v>
       </c>
       <c r="N18" s="3">
         <v>300</v>
@@ -1604,11 +1634,11 @@
         <v>300</v>
       </c>
       <c r="P18" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1616,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
@@ -1631,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
-        <v>100</v>
-      </c>
       <c r="AA18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="3">
         <v>100</v>
@@ -1649,10 +1679,13 @@
         <v>100</v>
       </c>
       <c r="AE18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,22 +1717,23 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1732,16 +1766,16 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
@@ -1750,7 +1784,7 @@
         <v>100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
@@ -1773,8 +1807,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1788,35 +1825,35 @@
         <v>200</v>
       </c>
       <c r="G21" s="3">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>400</v>
       </c>
       <c r="M21" s="3">
         <v>400</v>
       </c>
       <c r="N21" s="3">
+        <v>400</v>
+      </c>
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
         <v>100</v>
       </c>
@@ -1827,10 +1864,10 @@
         <v>100</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
         <v>100</v>
@@ -1839,16 +1876,16 @@
         <v>100</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
-        <v>100</v>
-      </c>
       <c r="AA21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB21" s="3">
         <v>0</v>
@@ -1857,13 +1894,16 @@
         <v>0</v>
       </c>
       <c r="AD21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1933,12 +1973,12 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
@@ -1951,8 +1991,11 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1966,35 +2009,35 @@
         <v>200</v>
       </c>
       <c r="G23" s="3">
+        <v>200</v>
+      </c>
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>400</v>
       </c>
       <c r="M23" s="3">
         <v>400</v>
       </c>
       <c r="N23" s="3">
+        <v>400</v>
+      </c>
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
         <v>100</v>
       </c>
@@ -2005,28 +2048,28 @@
         <v>100</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>100</v>
-      </c>
       <c r="AA23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB23" s="3">
         <v>0</v>
@@ -2035,27 +2078,30 @@
         <v>0</v>
       </c>
       <c r="AD23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -2064,10 +2110,10 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
@@ -2076,10 +2122,10 @@
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>-300</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>8</v>
@@ -2087,8 +2133,8 @@
       <c r="Q24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -2111,26 +2157,29 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-      <c r="Z24" s="3" t="s">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-      <c r="AD24" s="3" t="s">
-        <v>8</v>
+      <c r="AD24" s="3">
+        <v>0</v>
       </c>
       <c r="AE24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,22 +2267,25 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
         <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
         <v>200</v>
@@ -2248,20 +2300,20 @@
         <v>200</v>
       </c>
       <c r="L26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M26" s="3">
         <v>300</v>
       </c>
       <c r="N26" s="3">
+        <v>300</v>
+      </c>
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
         <v>100</v>
       </c>
@@ -2272,10 +2324,10 @@
         <v>100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
         <v>100</v>
@@ -2284,16 +2336,16 @@
         <v>100</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>100</v>
-      </c>
       <c r="AA26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB26" s="3">
         <v>0</v>
@@ -2302,13 +2354,16 @@
         <v>0</v>
       </c>
       <c r="AD26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2322,67 +2377,67 @@
         <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>300</v>
       </c>
       <c r="M27" s="3">
         <v>300</v>
       </c>
       <c r="N27" s="3">
+        <v>300</v>
+      </c>
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>100</v>
-      </c>
       <c r="AA27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB27" s="3">
         <v>0</v>
@@ -2391,13 +2446,16 @@
         <v>0</v>
       </c>
       <c r="AD27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2514,8 +2575,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2532,8 +2593,8 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2554,14 +2615,14 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>200</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-100</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
@@ -2569,13 +2630,16 @@
         <v>0</v>
       </c>
       <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
         <v>-100</v>
       </c>
-      <c r="AE29" s="3" t="s">
+      <c r="AF29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,22 +2819,25 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2800,16 +2870,16 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
@@ -2818,7 +2888,7 @@
         <v>-100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
@@ -2841,8 +2911,11 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2856,64 +2929,64 @@
         <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>300</v>
       </c>
       <c r="M33" s="3">
         <v>300</v>
       </c>
       <c r="N33" s="3">
+        <v>300</v>
+      </c>
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA33" s="3">
         <v>0</v>
@@ -2930,8 +3003,11 @@
       <c r="AE33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,8 +3095,11 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3034,64 +3113,64 @@
         <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>300</v>
       </c>
       <c r="M35" s="3">
         <v>300</v>
       </c>
       <c r="N35" s="3">
+        <v>300</v>
+      </c>
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA35" s="3">
         <v>0</v>
@@ -3108,102 +3187,108 @@
       <c r="AE35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,79 +3354,80 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>800</v>
       </c>
       <c r="Q41" s="3">
         <v>800</v>
       </c>
       <c r="R41" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="S41" s="3">
         <v>600</v>
       </c>
       <c r="T41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U41" s="3">
         <v>500</v>
       </c>
       <c r="V41" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="W41" s="3">
         <v>200</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y41" s="3">
         <v>100</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3639,13 +3738,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3687,10 +3786,10 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3722,61 +3824,61 @@
         <v>3100</v>
       </c>
       <c r="E46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F46" s="3">
         <v>2900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2800</v>
       </c>
       <c r="G46" s="3">
         <v>2800</v>
       </c>
       <c r="H46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I46" s="3">
         <v>2700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
-      </c>
-      <c r="R46" s="3">
-        <v>600</v>
       </c>
       <c r="S46" s="3">
         <v>600</v>
       </c>
       <c r="T46" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U46" s="3">
         <v>500</v>
       </c>
       <c r="V46" s="3">
+        <v>500</v>
+      </c>
+      <c r="W46" s="3">
         <v>300</v>
-      </c>
-      <c r="W46" s="3">
-        <v>200</v>
       </c>
       <c r="X46" s="3">
         <v>200</v>
@@ -3785,25 +3887,28 @@
         <v>200</v>
       </c>
       <c r="Z46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3903,7 +4011,7 @@
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
@@ -3915,7 +4023,7 @@
         <v>400</v>
       </c>
       <c r="J48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
@@ -3924,7 +4032,7 @@
         <v>500</v>
       </c>
       <c r="M48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N48" s="3">
         <v>600</v>
@@ -3936,25 +4044,25 @@
         <v>600</v>
       </c>
       <c r="Q48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R48" s="3">
         <v>700</v>
       </c>
       <c r="S48" s="3">
+        <v>700</v>
+      </c>
+      <c r="T48" s="3">
         <v>1000</v>
-      </c>
-      <c r="T48" s="3">
-        <v>1100</v>
       </c>
       <c r="U48" s="3">
         <v>1100</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="W48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3966,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="3">
         <v>100</v>
@@ -3975,13 +4083,16 @@
         <v>100</v>
       </c>
       <c r="AD48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4271,23 +4391,23 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
       <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
@@ -4331,13 +4451,16 @@
         <v>0</v>
       </c>
       <c r="AD52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,8 +4548,11 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4434,49 +4560,49 @@
         <v>3400</v>
       </c>
       <c r="E54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F54" s="3">
         <v>3300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>3200</v>
       </c>
       <c r="G54" s="3">
         <v>3200</v>
       </c>
       <c r="H54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I54" s="3">
         <v>3100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1300</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1600</v>
       </c>
       <c r="T54" s="3">
         <v>1600</v>
@@ -4485,20 +4611,20 @@
         <v>1600</v>
       </c>
       <c r="V54" s="3">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="W54" s="3">
         <v>300</v>
       </c>
       <c r="X54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>300</v>
       </c>
-      <c r="Z54" s="3">
-        <v>100</v>
-      </c>
       <c r="AA54" s="3">
         <v>100</v>
       </c>
@@ -4506,16 +4632,19 @@
         <v>100</v>
       </c>
       <c r="AC54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD54" s="3">
         <v>200</v>
       </c>
-      <c r="AD54" s="3">
-        <v>100</v>
-      </c>
       <c r="AE54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4595,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -4631,7 +4762,7 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -4655,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="3">
         <v>100</v>
@@ -4667,10 +4798,13 @@
         <v>100</v>
       </c>
       <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4744,13 +4878,13 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="3">
         <v>100</v>
       </c>
       <c r="AC58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD58" s="3">
         <v>0</v>
@@ -4758,8 +4892,11 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4770,7 +4907,7 @@
         <v>1700</v>
       </c>
       <c r="F59" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G59" s="3">
         <v>1600</v>
@@ -4782,13 +4919,13 @@
         <v>1600</v>
       </c>
       <c r="J59" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K59" s="3">
         <v>1500</v>
       </c>
       <c r="L59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M59" s="3">
         <v>1400</v>
@@ -4797,19 +4934,19 @@
         <v>1400</v>
       </c>
       <c r="O59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1200</v>
       </c>
       <c r="T59" s="3">
         <v>1200</v>
@@ -4818,10 +4955,10 @@
         <v>1200</v>
       </c>
       <c r="V59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W59" s="3">
         <v>1000</v>
-      </c>
-      <c r="W59" s="3">
-        <v>1100</v>
       </c>
       <c r="X59" s="3">
         <v>1100</v>
@@ -4830,10 +4967,10 @@
         <v>1100</v>
       </c>
       <c r="Z59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1200</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>1000</v>
       </c>
       <c r="AB59" s="3">
         <v>1000</v>
@@ -4842,13 +4979,16 @@
         <v>1000</v>
       </c>
       <c r="AD59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE59" s="3">
         <v>900</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4859,10 +4999,10 @@
         <v>1700</v>
       </c>
       <c r="F60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G60" s="3">
         <v>1600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1700</v>
       </c>
       <c r="H60" s="3">
         <v>1700</v>
@@ -4871,13 +5011,13 @@
         <v>1700</v>
       </c>
       <c r="J60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K60" s="3">
         <v>1600</v>
       </c>
       <c r="L60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M60" s="3">
         <v>1500</v>
@@ -4886,19 +5026,19 @@
         <v>1500</v>
       </c>
       <c r="O60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P60" s="3">
         <v>1400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1300</v>
       </c>
       <c r="Q60" s="3">
         <v>1300</v>
       </c>
       <c r="R60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S60" s="3">
         <v>1100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1200</v>
       </c>
       <c r="T60" s="3">
         <v>1200</v>
@@ -4907,37 +5047,40 @@
         <v>1200</v>
       </c>
       <c r="V60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W60" s="3">
         <v>1000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1200</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>1300</v>
       </c>
       <c r="AB60" s="3">
         <v>1300</v>
       </c>
       <c r="AC60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AD60" s="3">
         <v>1200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5017,21 +5160,24 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -5040,7 +5186,7 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -5049,7 +5195,7 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
@@ -5058,7 +5204,7 @@
         <v>300</v>
       </c>
       <c r="M62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N62" s="3">
         <v>400</v>
@@ -5067,40 +5213,40 @@
         <v>400</v>
       </c>
       <c r="P62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q62" s="3">
         <v>500</v>
       </c>
       <c r="R62" s="3">
+        <v>500</v>
+      </c>
+      <c r="S62" s="3">
         <v>600</v>
-      </c>
-      <c r="S62" s="3">
-        <v>900</v>
       </c>
       <c r="T62" s="3">
         <v>900</v>
       </c>
       <c r="U62" s="3">
+        <v>900</v>
+      </c>
+      <c r="V62" s="3">
         <v>1000</v>
       </c>
-      <c r="V62" s="3">
-        <v>100</v>
-      </c>
       <c r="W62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
       </c>
       <c r="Y62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="3">
         <v>100</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>8</v>
+      <c r="AA62" s="3">
+        <v>100</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>8</v>
@@ -5108,14 +5254,17 @@
       <c r="AC62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AD62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE62" s="3">
         <v>200</v>
       </c>
-      <c r="AE62" s="3" t="s">
+      <c r="AF62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,13 +5536,16 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E66" s="3">
         <v>1800</v>
@@ -5396,7 +5554,7 @@
         <v>1800</v>
       </c>
       <c r="G66" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H66" s="3">
         <v>1900</v>
@@ -5411,49 +5569,49 @@
         <v>1900</v>
       </c>
       <c r="L66" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="M66" s="3">
         <v>1800</v>
       </c>
       <c r="N66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
-      </c>
-      <c r="S66" s="3">
-        <v>2100</v>
       </c>
       <c r="T66" s="3">
         <v>2100</v>
       </c>
       <c r="U66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V66" s="3">
         <v>2200</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1100</v>
       </c>
       <c r="W66" s="3">
         <v>1100</v>
       </c>
       <c r="X66" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Y66" s="3">
         <v>1200</v>
       </c>
       <c r="Z66" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="AA66" s="3">
         <v>1300</v>
@@ -5470,8 +5628,11 @@
       <c r="AE66" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5723,10 +5891,10 @@
         <v>400</v>
       </c>
       <c r="P70" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q70" s="3">
         <v>300</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>600</v>
       </c>
       <c r="R70" s="3">
         <v>600</v>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,8 +6030,11 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5868,70 +6042,70 @@
         <v>-7900</v>
       </c>
       <c r="E72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8000</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-8100</v>
       </c>
       <c r="G72" s="3">
         <v>-8100</v>
       </c>
       <c r="H72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-8200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9600</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-9800</v>
       </c>
       <c r="R72" s="3">
         <v>-9800</v>
       </c>
       <c r="S72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="T72" s="3">
         <v>-9900</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-10000</v>
       </c>
       <c r="U72" s="3">
         <v>-10000</v>
       </c>
       <c r="V72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="W72" s="3">
         <v>-10100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-10300</v>
       </c>
       <c r="Y72" s="3">
         <v>-10300</v>
       </c>
       <c r="Z72" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="AA72" s="3">
         <v>-10400</v>
@@ -5948,8 +6122,11 @@
       <c r="AE72" s="3">
         <v>-10400</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3">
+        <v>-10400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,8 +6398,11 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6224,76 +6410,76 @@
         <v>1200</v>
       </c>
       <c r="E76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F76" s="3">
         <v>1100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1000</v>
       </c>
       <c r="G76" s="3">
         <v>1000</v>
       </c>
       <c r="H76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="N76" s="3">
-        <v>100</v>
-      </c>
       <c r="O76" s="3">
+        <v>100</v>
+      </c>
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-1200</v>
       </c>
       <c r="U76" s="3">
         <v>-1200</v>
       </c>
       <c r="V76" s="3">
-        <v>-1400</v>
+        <v>-1200</v>
       </c>
       <c r="W76" s="3">
         <v>-1400</v>
       </c>
       <c r="X76" s="3">
-        <v>-1600</v>
+        <v>-1400</v>
       </c>
       <c r="Y76" s="3">
         <v>-1600</v>
       </c>
       <c r="Z76" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="AA76" s="3">
         <v>-1800</v>
       </c>
       <c r="AB76" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="AC76" s="3">
         <v>-1700</v>
@@ -6302,10 +6488,13 @@
         <v>-1700</v>
       </c>
       <c r="AE76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AF76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,102 +6582,108 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6502,64 +6697,64 @@
         <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>300</v>
       </c>
       <c r="M81" s="3">
         <v>300</v>
       </c>
       <c r="N81" s="3">
+        <v>300</v>
+      </c>
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA81" s="3">
         <v>0</v>
@@ -6576,8 +6771,11 @@
       <c r="AE81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,73 +7357,76 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>200</v>
       </c>
       <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
       <c r="S89" s="3">
         <v>100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
-        <v>100</v>
-      </c>
       <c r="W89" s="3">
         <v>100</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7312,8 +7533,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
@@ -7324,8 +7545,8 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7601,11 +7831,11 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>200</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7672,7 +7906,7 @@
         <v>-100</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8022,20 +8268,20 @@
         <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -8043,20 +8289,20 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -8079,11 +8325,11 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8200,67 +8452,67 @@
         <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
         <v>100</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA102" s="3">
         <v>0</v>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
